--- a/data/trans_orig/P41A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P41A_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5674</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1963</v>
+        <v>1933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14471</v>
+        <v>14019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009712878098307813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003360513308605125</v>
+        <v>0.003308814986374021</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02477363935950546</v>
+        <v>0.02399863062285465</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6280</v>
+        <v>6560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002007249258917389</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0068091039175124</v>
+        <v>0.007112237338030523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7525</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2839</v>
+        <v>2878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15072</v>
+        <v>15443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004995137040888665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00188467810619783</v>
+        <v>0.001910430232997597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01000473178430536</v>
+        <v>0.01025120012225013</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>16743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10250</v>
+        <v>9726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26179</v>
+        <v>26312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02866246058115889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0175469542172655</v>
+        <v>0.01664965689136376</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04481572369171483</v>
+        <v>0.04504342403551738</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -836,19 +836,19 @@
         <v>21971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14036</v>
+        <v>14029</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32963</v>
+        <v>31434</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02382103732572463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0152181752819521</v>
+        <v>0.01521034879043394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03573858913784198</v>
+        <v>0.03408060816668328</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -857,19 +857,19 @@
         <v>38714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28574</v>
+        <v>27958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52908</v>
+        <v>52596</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02569831816727214</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01896760355673649</v>
+        <v>0.01855889385321585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03512074801118263</v>
+        <v>0.03491355405427649</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>41916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30109</v>
+        <v>30093</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56178</v>
+        <v>57153</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07175664993515522</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05154330945285542</v>
+        <v>0.05151633289946514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09617200565215503</v>
+        <v>0.09784063249450231</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -907,19 +907,19 @@
         <v>65086</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50343</v>
+        <v>50958</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81521</v>
+        <v>82821</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07056681384880734</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05458260587647751</v>
+        <v>0.05524859699809079</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08838589456951826</v>
+        <v>0.08979554007037746</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>99</v>
@@ -928,19 +928,19 @@
         <v>107002</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>86864</v>
+        <v>87899</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>128163</v>
+        <v>130404</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07102817745443211</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05766055122105667</v>
+        <v>0.05834772781039031</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08507462512454654</v>
+        <v>0.0865625719857475</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>161908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>141172</v>
+        <v>142686</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183962</v>
+        <v>184854</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2771723462946108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2416739541768516</v>
+        <v>0.2442667191780453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3149276160445431</v>
+        <v>0.3164539530512854</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -978,19 +978,19 @@
         <v>171807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148658</v>
+        <v>148597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>197524</v>
+        <v>198775</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1862744438034371</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.161176522058829</v>
+        <v>0.1611099553158039</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2141573400910451</v>
+        <v>0.2155135612321628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -999,19 +999,19 @@
         <v>333715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>300253</v>
+        <v>300807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>368314</v>
+        <v>368027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2215204617366963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1993081891741048</v>
+        <v>0.1996761158942545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2444875884860243</v>
+        <v>0.2442966468498004</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>14955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8472</v>
+        <v>8534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25521</v>
+        <v>25353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02560253346369053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01450364874764153</v>
+        <v>0.01460941268070101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04368901598431141</v>
+        <v>0.0434021348676413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1049,19 +1049,19 @@
         <v>20836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12721</v>
+        <v>13170</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31949</v>
+        <v>31398</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02259095895051779</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0137923264393645</v>
+        <v>0.01427852769522796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03463958071533587</v>
+        <v>0.03404232654354968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -1070,19 +1070,19 @@
         <v>35792</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24480</v>
+        <v>25094</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50176</v>
+        <v>50660</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02375870877080588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01624963102872398</v>
+        <v>0.01665741735316609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03330702269403959</v>
+        <v>0.03362817710884382</v>
       </c>
     </row>
     <row r="9">
@@ -1146,19 +1146,19 @@
         <v>342945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>318004</v>
+        <v>319545</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>365263</v>
+        <v>366158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5870931316270768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5443953475657992</v>
+        <v>0.5470342490794234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6252986274505148</v>
+        <v>0.6268315335352198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>617</v>
@@ -1167,19 +1167,19 @@
         <v>640781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>613327</v>
+        <v>612783</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>670556</v>
+        <v>671018</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6947394968125957</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6649734657473206</v>
+        <v>0.6643835207080147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7270211483829556</v>
+        <v>0.7275224005519448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>961</v>
@@ -1188,19 +1188,19 @@
         <v>983726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>946512</v>
+        <v>941990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1021069</v>
+        <v>1022365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6529991968299049</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6282960139217485</v>
+        <v>0.6252944296491403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6777874110441915</v>
+        <v>0.6786479319247041</v>
       </c>
     </row>
     <row r="11">
@@ -1292,19 +1292,19 @@
         <v>5946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12900</v>
+        <v>12004</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005525517177442472</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001915470778224528</v>
+        <v>0.001917551160311274</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0119890618599377</v>
+        <v>0.01115580212945529</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1313,19 +1313,19 @@
         <v>7148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3011</v>
+        <v>3002</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14166</v>
+        <v>13981</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006803846580199417</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002865912005737618</v>
+        <v>0.002857707711077619</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01348342907267436</v>
+        <v>0.01330691507863006</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -1334,19 +1334,19 @@
         <v>13094</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7040</v>
+        <v>7182</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22090</v>
+        <v>21768</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.006157049931258594</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003310512935385086</v>
+        <v>0.003377145791468389</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01038738446979979</v>
+        <v>0.01023570489857698</v>
       </c>
     </row>
     <row r="13">
@@ -1363,19 +1363,19 @@
         <v>36762</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26650</v>
+        <v>26057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51096</v>
+        <v>52920</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0341646165938396</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0247671552684946</v>
+        <v>0.02421570537995878</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04748588494014615</v>
+        <v>0.04918131359922369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1384,19 +1384,19 @@
         <v>35551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24564</v>
+        <v>25363</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49232</v>
+        <v>48442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03383828623849262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02338075136708841</v>
+        <v>0.02414034818672739</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04685992654761367</v>
+        <v>0.04610724204752634</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -1405,19 +1405,19 @@
         <v>72313</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56893</v>
+        <v>56471</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91181</v>
+        <v>89540</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03400339969033914</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02675231221193115</v>
+        <v>0.02655381135592744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04287535993512494</v>
+        <v>0.04210376946265104</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>105039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85651</v>
+        <v>84469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>126053</v>
+        <v>126001</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09761806088662377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07960022468089881</v>
+        <v>0.07850121446889705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1171477110569903</v>
+        <v>0.1170990522931887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>106</v>
@@ -1455,19 +1455,19 @@
         <v>109843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89145</v>
+        <v>90455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129664</v>
+        <v>132011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1045496928950317</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08484979966613954</v>
+        <v>0.08609581482775795</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1234158718178906</v>
+        <v>0.1256495117008056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>207</v>
@@ -1476,19 +1476,19 @@
         <v>214882</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187839</v>
+        <v>188691</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242865</v>
+        <v>243336</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1010424933069912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08832625700618225</v>
+        <v>0.08872717162337528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.114200768572124</v>
+        <v>0.1144225133412813</v>
       </c>
     </row>
     <row r="15">
@@ -1505,19 +1505,19 @@
         <v>378902</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>348936</v>
+        <v>348941</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>413530</v>
+        <v>411758</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3521324243248554</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3242836921717803</v>
+        <v>0.3242881604945241</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3843144296025326</v>
+        <v>0.3826673531358777</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>245</v>
@@ -1526,19 +1526,19 @@
         <v>248844</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>224026</v>
+        <v>221935</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>279617</v>
+        <v>276469</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2368527112272221</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2132311933894226</v>
+        <v>0.2112408259443153</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2661431892684179</v>
+        <v>0.2631467545877736</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>612</v>
@@ -1547,19 +1547,19 @@
         <v>627745</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>582854</v>
+        <v>585582</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>670035</v>
+        <v>668740</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2951808166135186</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2740718321493253</v>
+        <v>0.2753547319457522</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3150666217234659</v>
+        <v>0.3144574230994319</v>
       </c>
     </row>
     <row r="16">
@@ -1576,19 +1576,19 @@
         <v>25195</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16492</v>
+        <v>16786</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37683</v>
+        <v>37319</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02341463775118153</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01532658294605414</v>
+        <v>0.01560001009380115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03502044544256889</v>
+        <v>0.03468235037454338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1597,19 +1597,19 @@
         <v>26614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18022</v>
+        <v>17674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38409</v>
+        <v>38673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02533111601131676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01715322206843381</v>
+        <v>0.01682244472952792</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03655837158260929</v>
+        <v>0.03680940679653593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -1618,19 +1618,19 @@
         <v>51808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38297</v>
+        <v>39116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67265</v>
+        <v>67992</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02436143502474942</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01800821399489466</v>
+        <v>0.01839324630594813</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03162940205558266</v>
+        <v>0.03197141229335151</v>
       </c>
     </row>
     <row r="17">
@@ -1694,19 +1694,19 @@
         <v>524177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>488630</v>
+        <v>491407</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>558263</v>
+        <v>558004</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4871447432660573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4541084303448599</v>
+        <v>0.4566897299037673</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5188225580955141</v>
+        <v>0.5185811446554615</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>605</v>
@@ -1715,19 +1715,19 @@
         <v>622627</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>591270</v>
+        <v>591325</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>654705</v>
+        <v>654415</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5926243470477375</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5627783666086078</v>
+        <v>0.5628303827585991</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6231568380792503</v>
+        <v>0.6228805327399068</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1125</v>
@@ -1736,19 +1736,19 @@
         <v>1146805</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1104864</v>
+        <v>1103176</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1195684</v>
+        <v>1192806</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5392548054331431</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5195334242402904</v>
+        <v>0.5187397638895157</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5622390959915827</v>
+        <v>0.5608858188097621</v>
       </c>
     </row>
     <row r="19">
@@ -1840,19 +1840,19 @@
         <v>2736</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8122</v>
+        <v>7407</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002453611795679716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0007784379972403534</v>
+        <v>0.000782830928817497</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007283949893323748</v>
+        <v>0.006643101680998029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1861,19 +1861,19 @@
         <v>6441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13366</v>
+        <v>13401</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006523922826179075</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002045531868914001</v>
+        <v>0.002040826486121959</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01353841133284979</v>
+        <v>0.013573074764133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1882,19 +1882,19 @@
         <v>9177</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4682</v>
+        <v>4148</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17240</v>
+        <v>18087</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004365102478940136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002226993500295473</v>
+        <v>0.001973091026711062</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008200377074447571</v>
+        <v>0.008603173537296734</v>
       </c>
     </row>
     <row r="21">
@@ -1911,19 +1911,19 @@
         <v>54676</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41005</v>
+        <v>41900</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70119</v>
+        <v>70927</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04903490844749491</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0367746087938812</v>
+        <v>0.03757703167467034</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06288477673886336</v>
+        <v>0.06360904568030054</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -1932,19 +1932,19 @@
         <v>30054</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21123</v>
+        <v>21066</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44680</v>
+        <v>43071</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03044029852308883</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02139426142399089</v>
+        <v>0.02133737335658157</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04525517079447922</v>
+        <v>0.0436251262725286</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -1953,19 +1953,19 @@
         <v>84730</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>66830</v>
+        <v>68086</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>104413</v>
+        <v>103626</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04030254785808723</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03178848508575888</v>
+        <v>0.0323857756819606</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04966514580336213</v>
+        <v>0.04929048354552451</v>
       </c>
     </row>
     <row r="22">
@@ -1982,19 +1982,19 @@
         <v>125349</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>105794</v>
+        <v>106285</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148810</v>
+        <v>147302</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1124158227755113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09487851914955484</v>
+        <v>0.09531903899443951</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1334562241163183</v>
+        <v>0.1321037719051219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -2003,19 +2003,19 @@
         <v>102898</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>86186</v>
+        <v>85386</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>122653</v>
+        <v>123652</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1042216748388346</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08729471373246679</v>
+        <v>0.08648433692483876</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1242304058415876</v>
+        <v>0.1252423521872364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -2024,19 +2024,19 @@
         <v>228247</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>201138</v>
+        <v>201655</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>257834</v>
+        <v>260809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1085677047027522</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09567288683233131</v>
+        <v>0.09591875505317425</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1226411573452488</v>
+        <v>0.1240561895979009</v>
       </c>
     </row>
     <row r="23">
@@ -2053,19 +2053,19 @@
         <v>383925</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>350657</v>
+        <v>352347</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>413942</v>
+        <v>416213</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3443131568092677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3144774627001725</v>
+        <v>0.3159932941238218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3712327528844658</v>
+        <v>0.3732697606403727</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>291</v>
@@ -2074,19 +2074,19 @@
         <v>296732</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>270003</v>
+        <v>270988</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>325827</v>
+        <v>329643</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3005488047584415</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2734760735446279</v>
+        <v>0.2744742215092805</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3300178431343693</v>
+        <v>0.3338834786832514</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>665</v>
@@ -2095,19 +2095,19 @@
         <v>680657</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>635489</v>
+        <v>636380</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>718877</v>
+        <v>723528</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3237606362335071</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3022760395546957</v>
+        <v>0.302699807920024</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3419404231910806</v>
+        <v>0.3441526476741794</v>
       </c>
     </row>
     <row r="24">
@@ -2124,19 +2124,19 @@
         <v>16188</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8846</v>
+        <v>9709</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25837</v>
+        <v>27305</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01451814729102379</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007933269807871055</v>
+        <v>0.008707485176843522</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0231711336947382</v>
+        <v>0.02448810514066779</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -2145,19 +2145,19 @@
         <v>14175</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8202</v>
+        <v>8251</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23691</v>
+        <v>23406</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01435764165561586</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008307045244368974</v>
+        <v>0.008357154852038941</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02399619631308271</v>
+        <v>0.02370689349990116</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>29</v>
@@ -2166,19 +2166,19 @@
         <v>30364</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21080</v>
+        <v>20455</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45323</v>
+        <v>42631</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01444277098086122</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01002694740527596</v>
+        <v>0.009729692253214572</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02155808969765804</v>
+        <v>0.02027777489605462</v>
       </c>
     </row>
     <row r="25">
@@ -2242,19 +2242,19 @@
         <v>532172</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>499388</v>
+        <v>497470</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>565317</v>
+        <v>563374</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4772643528810226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4478630210849437</v>
+        <v>0.4461424974897721</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5069897549087862</v>
+        <v>0.5052472458148533</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>534</v>
@@ -2263,19 +2263,19 @@
         <v>537000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>508526</v>
+        <v>507089</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>566704</v>
+        <v>565940</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5439076573978401</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5150674399248045</v>
+        <v>0.5136116632338534</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5739936654966847</v>
+        <v>0.573220386195772</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1067</v>
@@ -2284,19 +2284,19 @@
         <v>1069172</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1019200</v>
+        <v>1026514</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1113835</v>
+        <v>1118831</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.508561237745852</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4847914089573116</v>
+        <v>0.4882705704668343</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5298054686019795</v>
+        <v>0.5321817737821242</v>
       </c>
     </row>
     <row r="27">
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7049</v>
+        <v>7102</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006052938455907988</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02094721047629508</v>
+        <v>0.02110533384403798</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7196</v>
+        <v>7128</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002608490185047931</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009215077636513774</v>
+        <v>0.00912748559041051</v>
       </c>
     </row>
     <row r="29">
@@ -2451,19 +2451,19 @@
         <v>29624</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20027</v>
+        <v>20011</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42375</v>
+        <v>40154</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06666626976254919</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0450676597852894</v>
+        <v>0.04503186357270626</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09535959957684899</v>
+        <v>0.09036125913740253</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -2472,19 +2472,19 @@
         <v>18011</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11248</v>
+        <v>11030</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29067</v>
+        <v>28309</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05352064184806744</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03342507812803674</v>
+        <v>0.03277774981409298</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08637557971168433</v>
+        <v>0.08412234718143605</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2493,19 +2493,19 @@
         <v>47635</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35367</v>
+        <v>35823</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>61441</v>
+        <v>60887</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06100121275907864</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04529080275638461</v>
+        <v>0.04587453237372397</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07868109666446819</v>
+        <v>0.07797177787736032</v>
       </c>
     </row>
     <row r="30">
@@ -2522,19 +2522,19 @@
         <v>58392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44896</v>
+        <v>44103</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>76045</v>
+        <v>75238</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1314058596662161</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1010329381716066</v>
+        <v>0.09924893940689344</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1711308231392117</v>
+        <v>0.1693143990757036</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>60</v>
@@ -2543,19 +2543,19 @@
         <v>59631</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47260</v>
+        <v>47418</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75277</v>
+        <v>74920</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1771979887991153</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1404383439532959</v>
+        <v>0.1409052893201963</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2236924890951367</v>
+        <v>0.2226299450910968</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>113</v>
@@ -2564,19 +2564,19 @@
         <v>118023</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>97240</v>
+        <v>99656</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>138331</v>
+        <v>140499</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.151139798853889</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1245248899970396</v>
+        <v>0.1276186726443026</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1771456947503025</v>
+        <v>0.179921760432425</v>
       </c>
     </row>
     <row r="31">
@@ -2593,19 +2593,19 @@
         <v>151118</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>130102</v>
+        <v>130964</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>170602</v>
+        <v>172237</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.340075322438834</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2927795462259706</v>
+        <v>0.2947209858267917</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3839217040865163</v>
+        <v>0.3876014890785981</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>92</v>
@@ -2614,19 +2614,19 @@
         <v>92419</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>76084</v>
+        <v>76491</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>108934</v>
+        <v>108173</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2746300228704271</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2260905625980351</v>
+        <v>0.2272982380068742</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3237062248318021</v>
+        <v>0.3214443235047238</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>237</v>
@@ -2635,19 +2635,19 @@
         <v>243537</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>217215</v>
+        <v>219117</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>269546</v>
+        <v>267167</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3118719262164446</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.278163770071706</v>
+        <v>0.2805993268605692</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3451788339778085</v>
+        <v>0.34213254881024</v>
       </c>
     </row>
     <row r="32">
@@ -2664,19 +2664,19 @@
         <v>5406</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2010</v>
+        <v>1977</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12699</v>
+        <v>11654</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01216596864926486</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00452434634621605</v>
+        <v>0.004448795301264943</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02857738840703709</v>
+        <v>0.02622626451872538</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -2685,19 +2685,19 @@
         <v>6776</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2832</v>
+        <v>3027</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13580</v>
+        <v>13350</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02013611144659996</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008415470275801463</v>
+        <v>0.008995796352658656</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04035457729676404</v>
+        <v>0.03967131046098447</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -2706,19 +2706,19 @@
         <v>12182</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6733</v>
+        <v>6845</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21951</v>
+        <v>20393</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01560067055673046</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008622189018711769</v>
+        <v>0.008765804129873794</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02810971451141268</v>
+        <v>0.02611545482281892</v>
       </c>
     </row>
     <row r="33">
@@ -2782,19 +2782,19 @@
         <v>199826</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>179022</v>
+        <v>178997</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>221513</v>
+        <v>222211</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4496865794831358</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.40286892817091</v>
+        <v>0.4028125579834828</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4984905376239084</v>
+        <v>0.500062247054176</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>156</v>
@@ -2803,19 +2803,19 @@
         <v>157647</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>140162</v>
+        <v>139369</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>175996</v>
+        <v>175796</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4684622965798822</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.416501773443626</v>
+        <v>0.4141470846160843</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5229879617789618</v>
+        <v>0.5223928558249611</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>357</v>
@@ -2824,19 +2824,19 @@
         <v>357473</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>330419</v>
+        <v>327563</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>387281</v>
+        <v>385676</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4577779014288094</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4231319040614003</v>
+        <v>0.4194752710666469</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4959501057746108</v>
+        <v>0.4938945908652236</v>
       </c>
     </row>
     <row r="35">
@@ -2928,19 +2928,19 @@
         <v>14355</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7836</v>
+        <v>7774</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23894</v>
+        <v>24313</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.004458709487322379</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.002433989831991704</v>
+        <v>0.002414689583700935</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.007421623120461291</v>
+        <v>0.007551545782491311</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>17</v>
@@ -2949,19 +2949,19 @@
         <v>17478</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10123</v>
+        <v>9857</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>27697</v>
+        <v>27551</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005301433651548606</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003070452871421157</v>
+        <v>0.002989928785476124</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008401171175212479</v>
+        <v>0.008356838880043729</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>31</v>
@@ -2970,19 +2970,19 @@
         <v>31833</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>21388</v>
+        <v>21826</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>44665</v>
+        <v>44148</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.004885063756320886</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.003282195796981649</v>
+        <v>0.003349443909943124</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.00685427612087604</v>
+        <v>0.00677494883793784</v>
       </c>
     </row>
     <row r="37">
@@ -2999,19 +2999,19 @@
         <v>137805</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>113718</v>
+        <v>116232</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>161231</v>
+        <v>159794</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04280231152803933</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03532080497585355</v>
+        <v>0.03610155103921769</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05007818523404722</v>
+        <v>0.04963188046918426</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>103</v>
@@ -3020,19 +3020,19 @@
         <v>105587</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>86994</v>
+        <v>87357</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>126497</v>
+        <v>126880</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03202726089444795</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02638749969278887</v>
+        <v>0.0264977745805743</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03836973495416151</v>
+        <v>0.03848614291498399</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>236</v>
@@ -3041,19 +3041,19 @@
         <v>243392</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>216457</v>
+        <v>215298</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>277180</v>
+        <v>274712</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03735095623134524</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03321756506688352</v>
+        <v>0.03303961861479684</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04253610882526514</v>
+        <v>0.04215733327432782</v>
       </c>
     </row>
     <row r="38">
@@ -3070,19 +3070,19 @@
         <v>330696</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>297848</v>
+        <v>296277</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>369630</v>
+        <v>367460</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.102714284488734</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09251170289939736</v>
+        <v>0.09202349664490758</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1148071205506406</v>
+        <v>0.1141329695072542</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>328</v>
@@ -3091,19 +3091,19 @@
         <v>337458</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>304456</v>
+        <v>304537</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>375263</v>
+        <v>375139</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1023597583384733</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09234955605015084</v>
+        <v>0.09237402435658847</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1138270815776511</v>
+        <v>0.1137894100341717</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>641</v>
@@ -3112,19 +3112,19 @@
         <v>668154</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>618337</v>
+        <v>617353</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>718487</v>
+        <v>716751</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1025349212474129</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09488999877635237</v>
+        <v>0.09473895395688121</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1102589965314049</v>
+        <v>0.1099925615800649</v>
       </c>
     </row>
     <row r="39">
@@ -3141,19 +3141,19 @@
         <v>1075853</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1023737</v>
+        <v>1019015</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1128504</v>
+        <v>1130226</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3341598970391443</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3179726296776909</v>
+        <v>0.3165059179135361</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3505131722907817</v>
+        <v>0.3510480518389383</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>792</v>
@@ -3162,19 +3162,19 @@
         <v>809801</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>765207</v>
+        <v>764660</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>862475</v>
+        <v>861466</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2456339946964329</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2321072602509896</v>
+        <v>0.2319413754898491</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2616114246001008</v>
+        <v>0.2613051590547558</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1834</v>
@@ -3183,19 +3183,19 @@
         <v>1885654</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1812191</v>
+        <v>1815837</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1965732</v>
+        <v>1955792</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.28937253008923</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.278098804058973</v>
+        <v>0.2786582948852906</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.301661240110065</v>
+        <v>0.3001358542688454</v>
       </c>
     </row>
     <row r="40">
@@ -3212,19 +3212,19 @@
         <v>61745</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>47494</v>
+        <v>46913</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>79916</v>
+        <v>79035</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01917789722646259</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01475150405315989</v>
+        <v>0.01457103074551401</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02482186886119418</v>
+        <v>0.02454838774313341</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>67</v>
@@ -3233,19 +3233,19 @@
         <v>68401</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>52845</v>
+        <v>54076</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>86388</v>
+        <v>88254</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02074795622062623</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01602916551204771</v>
+        <v>0.01640278083835537</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02620363853148226</v>
+        <v>0.02676984270838704</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>124</v>
@@ -3254,19 +3254,19 @@
         <v>130146</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>108996</v>
+        <v>109628</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>155203</v>
+        <v>153527</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01997222754610615</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01672657020666146</v>
+        <v>0.01682351240093347</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0238174218300716</v>
+        <v>0.02356026092787839</v>
       </c>
     </row>
     <row r="41">
@@ -3330,19 +3330,19 @@
         <v>1599121</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1540316</v>
+        <v>1541817</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1656374</v>
+        <v>1656408</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4966869002302974</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4784219618164109</v>
+        <v>0.4788882938482462</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.514469761356772</v>
+        <v>0.5144803152671369</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1912</v>
@@ -3351,19 +3351,19 @@
         <v>1958055</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1899172</v>
+        <v>1901606</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2011212</v>
+        <v>2014711</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.593929596198471</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5760687643572046</v>
+        <v>0.5768070995193535</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6100534203367163</v>
+        <v>0.6111148131805508</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3510</v>
@@ -3372,19 +3372,19 @@
         <v>3557176</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3465343</v>
+        <v>3484143</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3642122</v>
+        <v>3645400</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5458843011295849</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5317915211041105</v>
+        <v>0.5346766230896184</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5589200142616113</v>
+        <v>0.5594230809168831</v>
       </c>
     </row>
     <row r="43">
@@ -3716,19 +3716,19 @@
         <v>6158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2323</v>
+        <v>2101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13566</v>
+        <v>12427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005909629883865786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002229331847703202</v>
+        <v>0.002016675871470149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01302001806417659</v>
+        <v>0.01192637890581313</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3737,19 +3737,19 @@
         <v>13125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7712</v>
+        <v>7325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22450</v>
+        <v>21974</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01174044898563501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006898525899248139</v>
+        <v>0.006552701744615382</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0200820633720509</v>
+        <v>0.01965597257599606</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3758,19 +3758,19 @@
         <v>19282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12191</v>
+        <v>11891</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30075</v>
+        <v>29772</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008927571029891813</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005644476555905146</v>
+        <v>0.00550555080812141</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0139244159209215</v>
+        <v>0.01378428894980221</v>
       </c>
     </row>
     <row r="5">
@@ -3787,19 +3787,19 @@
         <v>66445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52358</v>
+        <v>51834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82443</v>
+        <v>84501</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06376974594785881</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05024978732139442</v>
+        <v>0.04974684256723115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07912381349893557</v>
+        <v>0.08109879074762186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -3808,19 +3808,19 @@
         <v>69445</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53243</v>
+        <v>53933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88596</v>
+        <v>87984</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0621203702287936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04762685207895776</v>
+        <v>0.04824417061526858</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07925155181889866</v>
+        <v>0.07870404796829429</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>125</v>
@@ -3829,19 +3829,19 @@
         <v>135890</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113683</v>
+        <v>114063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162073</v>
+        <v>159507</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06291605476640665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05263439951921031</v>
+        <v>0.05281026263921223</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07503835475137836</v>
+        <v>0.07385043339090593</v>
       </c>
     </row>
     <row r="6">
@@ -3858,19 +3858,19 @@
         <v>100984</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83394</v>
+        <v>84679</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121096</v>
+        <v>120992</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09691838523241171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08003677256600823</v>
+        <v>0.08126945399149847</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1162204423044588</v>
+        <v>0.1161209462175263</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>111</v>
@@ -3879,19 +3879,19 @@
         <v>124051</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>104192</v>
+        <v>101579</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148036</v>
+        <v>146071</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1109667413651733</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09320239545251384</v>
+        <v>0.09086531356062716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1324215543142764</v>
+        <v>0.1306642759206378</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -3900,19 +3900,19 @@
         <v>225035</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198048</v>
+        <v>196857</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>256737</v>
+        <v>255775</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1041895955490247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09169464486366639</v>
+        <v>0.09114333451464264</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1188673826775518</v>
+        <v>0.1184218313382482</v>
       </c>
     </row>
     <row r="7">
@@ -3929,19 +3929,19 @@
         <v>273861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>245969</v>
+        <v>245864</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306793</v>
+        <v>303117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2628346886580631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2360660388843354</v>
+        <v>0.2359650147718634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2944407901465639</v>
+        <v>0.2909129458775063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -3950,19 +3950,19 @@
         <v>174652</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149854</v>
+        <v>152468</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202032</v>
+        <v>202393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.156230545821134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1340478952631564</v>
+        <v>0.1363861625123924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1807227065708616</v>
+        <v>0.1810459167527093</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>423</v>
@@ -3971,19 +3971,19 @@
         <v>448513</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>408388</v>
+        <v>410508</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>488556</v>
+        <v>491069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2076580447956623</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1890803337222521</v>
+        <v>0.1900621862807101</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2261976169892562</v>
+        <v>0.2273610560584816</v>
       </c>
     </row>
     <row r="8">
@@ -4000,19 +4000,19 @@
         <v>20742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12408</v>
+        <v>13141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31066</v>
+        <v>31979</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01990733198484918</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01190869467134706</v>
+        <v>0.01261217363473129</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02981529458634498</v>
+        <v>0.03069122145455418</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -4021,19 +4021,19 @@
         <v>17598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10329</v>
+        <v>10518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28393</v>
+        <v>27329</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01574221763868296</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009239874356489163</v>
+        <v>0.009408202826259267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02539780507687128</v>
+        <v>0.02444658819801488</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -4042,19 +4042,19 @@
         <v>38341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26974</v>
+        <v>26970</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54322</v>
+        <v>53478</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0177515336752456</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01248852769579397</v>
+        <v>0.01248677903988647</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02515059378230145</v>
+        <v>0.02476003779526628</v>
       </c>
     </row>
     <row r="9">
@@ -4118,19 +4118,19 @@
         <v>573762</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>542068</v>
+        <v>543550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>604040</v>
+        <v>607798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5506602182929514</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5202432359119279</v>
+        <v>0.5216653016338898</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5797200613819816</v>
+        <v>0.583326500242018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>664</v>
@@ -4139,19 +4139,19 @@
         <v>719041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>687496</v>
+        <v>684863</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>756170</v>
+        <v>748624</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.643199675960581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6149825880083162</v>
+        <v>0.61262731242073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6764128188391423</v>
+        <v>0.6696622941146033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1194</v>
@@ -4160,19 +4160,19 @@
         <v>1292802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1246494</v>
+        <v>1245420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1343604</v>
+        <v>1338585</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5985572001837689</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5771170098278197</v>
+        <v>0.5766198647630598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6220779539641893</v>
+        <v>0.6197543812713964</v>
       </c>
     </row>
     <row r="11">
@@ -4264,19 +4264,19 @@
         <v>6839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2859</v>
+        <v>2966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14372</v>
+        <v>13494</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007005640992090907</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002928987063277161</v>
+        <v>0.003038050439922427</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01472227498337167</v>
+        <v>0.01382370591637202</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4285,19 +4285,19 @@
         <v>11078</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5882</v>
+        <v>5943</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18937</v>
+        <v>19605</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01013305798469205</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005380269466373878</v>
+        <v>0.005436154248558749</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0173217261093355</v>
+        <v>0.01793308590955214</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -4306,19 +4306,19 @@
         <v>17916</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11152</v>
+        <v>10715</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28412</v>
+        <v>26848</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008657792128054372</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005388996473651833</v>
+        <v>0.005177718050455106</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01372965222658833</v>
+        <v>0.01297396919940653</v>
       </c>
     </row>
     <row r="13">
@@ -4335,19 +4335,19 @@
         <v>67372</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53209</v>
+        <v>51547</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84804</v>
+        <v>83925</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06901603705684238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05450722838196496</v>
+        <v>0.05280528326025108</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08687326127966082</v>
+        <v>0.0859726287797546</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -4356,19 +4356,19 @@
         <v>84577</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68034</v>
+        <v>67460</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106404</v>
+        <v>105319</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07736525166372435</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06223272590824953</v>
+        <v>0.06170708992928767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09733010652859453</v>
+        <v>0.09633773732114372</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -4377,19 +4377,19 @@
         <v>151949</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129327</v>
+        <v>128841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179044</v>
+        <v>177182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07342675824618076</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06249478399185094</v>
+        <v>0.06226005052079766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08651970692528797</v>
+        <v>0.08561991872640869</v>
       </c>
     </row>
     <row r="14">
@@ -4406,19 +4406,19 @@
         <v>106524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86904</v>
+        <v>87569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125995</v>
+        <v>127634</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1091237099493757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0890247383949094</v>
+        <v>0.08970636200784984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1290692092633155</v>
+        <v>0.1307487227317144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>123</v>
@@ -4427,19 +4427,19 @@
         <v>129416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108406</v>
+        <v>110356</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150291</v>
+        <v>154198</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1183802620617161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09916142647396772</v>
+        <v>0.100945100337152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1374755791494001</v>
+        <v>0.141048729925998</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>226</v>
@@ -4448,19 +4448,19 @@
         <v>235940</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>206981</v>
+        <v>208982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267589</v>
+        <v>268032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.114013759189272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1000196534226713</v>
+        <v>0.1009868791009207</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1293074476572268</v>
+        <v>0.1295217477189022</v>
       </c>
     </row>
     <row r="15">
@@ -4477,19 +4477,19 @@
         <v>318999</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>287736</v>
+        <v>286265</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>349587</v>
+        <v>348818</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3267835038610015</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.294757323531144</v>
+        <v>0.2932507256088673</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3581178303516251</v>
+        <v>0.3573298299631225</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>184</v>
@@ -4498,19 +4498,19 @@
         <v>191859</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>167993</v>
+        <v>168657</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>219632</v>
+        <v>218235</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1754981564071431</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1536672072856682</v>
+        <v>0.1542751782505184</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2009032770154235</v>
+        <v>0.1996255906452859</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>490</v>
@@ -4519,19 +4519,19 @@
         <v>510858</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>472035</v>
+        <v>471432</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>552799</v>
+        <v>551765</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2468625149932415</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2281021159121058</v>
+        <v>0.2278109423661462</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2671297949940595</v>
+        <v>0.2666305202579778</v>
       </c>
     </row>
     <row r="16">
@@ -4548,19 +4548,19 @@
         <v>16199</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8339</v>
+        <v>9289</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24791</v>
+        <v>25631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01659441917687342</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008542830893115295</v>
+        <v>0.009515981077643102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02539639046124721</v>
+        <v>0.02625602350472061</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4569,19 +4569,19 @@
         <v>17643</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10797</v>
+        <v>10251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28143</v>
+        <v>28210</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01613808059980018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00987658523972151</v>
+        <v>0.009377160703988009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02574304195847326</v>
+        <v>0.02580465760897683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -4590,19 +4590,19 @@
         <v>33842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22154</v>
+        <v>24353</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46955</v>
+        <v>49120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01635334473739855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01070555201766296</v>
+        <v>0.01176824374153729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02269033648734927</v>
+        <v>0.02373641013195309</v>
       </c>
     </row>
     <row r="17">
@@ -4666,19 +4666,19 @@
         <v>460245</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>429558</v>
+        <v>428241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>491619</v>
+        <v>492620</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4714766889638161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4400403813364869</v>
+        <v>0.4386919580097171</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5036163750454629</v>
+        <v>0.5046419251489069</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>611</v>
@@ -4687,19 +4687,19 @@
         <v>658651</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>625344</v>
+        <v>627217</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>690823</v>
+        <v>691823</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6024851912829242</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5720187756736348</v>
+        <v>0.573732243054906</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6319142601777732</v>
+        <v>0.632828451358055</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1038</v>
@@ -4708,19 +4708,19 @@
         <v>1118896</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1067316</v>
+        <v>1075196</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1163723</v>
+        <v>1168236</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5406858307058527</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5157609166621667</v>
+        <v>0.519568643043764</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.562347865345227</v>
+        <v>0.564528422285665</v>
       </c>
     </row>
     <row r="19">
@@ -4812,19 +4812,19 @@
         <v>5791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1940</v>
+        <v>2744</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11610</v>
+        <v>13351</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006549945660473159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002194272136630399</v>
+        <v>0.003104028024506402</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01313273580277303</v>
+        <v>0.0151020115577663</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -4833,19 +4833,19 @@
         <v>15471</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8630</v>
+        <v>8482</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25220</v>
+        <v>23814</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01766558305569756</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009853436188004971</v>
+        <v>0.009684356203455358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02879631714710426</v>
+        <v>0.02719150243293725</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -4854,19 +4854,19 @@
         <v>21262</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13449</v>
+        <v>13012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32085</v>
+        <v>31894</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01208163189498437</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00764202312279078</v>
+        <v>0.007393472382791302</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01823165588429072</v>
+        <v>0.01812317122850979</v>
       </c>
     </row>
     <row r="21">
@@ -4883,19 +4883,19 @@
         <v>60048</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45252</v>
+        <v>45828</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78132</v>
+        <v>76356</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06792256808053355</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05118636077982958</v>
+        <v>0.05183690664711483</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08837792962696675</v>
+        <v>0.08636901612819554</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -4904,19 +4904,19 @@
         <v>52241</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39380</v>
+        <v>38527</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>66047</v>
+        <v>67689</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05965004772506344</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04496453156315527</v>
+        <v>0.04399133471766264</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07541363877635272</v>
+        <v>0.07728886768284506</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>108</v>
@@ -4925,19 +4925,19 @@
         <v>112290</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>92394</v>
+        <v>94771</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>134982</v>
+        <v>137331</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06380575630015575</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05250085651962709</v>
+        <v>0.05385134347242453</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07669992304641102</v>
+        <v>0.07803469659992338</v>
       </c>
     </row>
     <row r="22">
@@ -4954,19 +4954,19 @@
         <v>67472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53117</v>
+        <v>52738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84625</v>
+        <v>83543</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07632010237001471</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06008272842989013</v>
+        <v>0.05965400828830063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09572245927910523</v>
+        <v>0.09449799837963389</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -4975,19 +4975,19 @@
         <v>88350</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70684</v>
+        <v>72992</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106570</v>
+        <v>110565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1008792330522798</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08070884918858541</v>
+        <v>0.08334365290875427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1216832275406651</v>
+        <v>0.1262449683329161</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -4996,19 +4996,19 @@
         <v>155822</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>132865</v>
+        <v>133546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183238</v>
+        <v>180954</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08854193007959928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0754971988776283</v>
+        <v>0.07588391411917453</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1041205282778014</v>
+        <v>0.1028228742353358</v>
       </c>
     </row>
     <row r="23">
@@ -5025,19 +5025,19 @@
         <v>302528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>275313</v>
+        <v>274935</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>334838</v>
+        <v>329093</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3421989579733278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3114148210349107</v>
+        <v>0.3109878384972403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3787450538828099</v>
+        <v>0.3722473563398337</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>174</v>
@@ -5046,19 +5046,19 @@
         <v>179364</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>157203</v>
+        <v>156532</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>204076</v>
+        <v>205637</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2048014266099208</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.179497365429211</v>
+        <v>0.1787305799702895</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.233018288962315</v>
+        <v>0.2348001676285928</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>462</v>
@@ -5067,19 +5067,19 @@
         <v>481892</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>442889</v>
+        <v>439568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>518093</v>
+        <v>518172</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2738232089384307</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2516605640521617</v>
+        <v>0.2497737239324817</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2943935946773904</v>
+        <v>0.2944385673179832</v>
       </c>
     </row>
     <row r="24">
@@ -5096,19 +5096,19 @@
         <v>5095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2003</v>
+        <v>1921</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11187</v>
+        <v>11290</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005762707025302806</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002265674022349296</v>
+        <v>0.002173191750490629</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01265404373909234</v>
+        <v>0.01277074216884232</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -5117,19 +5117,19 @@
         <v>11054</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5238</v>
+        <v>5803</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20359</v>
+        <v>19838</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01262203031899764</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005980588946313943</v>
+        <v>0.006626000828600988</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02324574218263433</v>
+        <v>0.02265149080398675</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -5138,19 +5138,19 @@
         <v>16149</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9196</v>
+        <v>9187</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26272</v>
+        <v>27095</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009176242650178038</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00522527820495257</v>
+        <v>0.005220552493399699</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0149285745995252</v>
+        <v>0.01539618830966426</v>
       </c>
     </row>
     <row r="25">
@@ -5214,19 +5214,19 @@
         <v>443137</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>409774</v>
+        <v>415031</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>473901</v>
+        <v>474289</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.501245718890348</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4635083654126433</v>
+        <v>0.46945398682622</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5360438416348491</v>
+        <v>0.5364829038658584</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>491</v>
@@ -5235,19 +5235,19 @@
         <v>529315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>501753</v>
+        <v>497036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>557759</v>
+        <v>555734</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6043816792380408</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5729103700110302</v>
+        <v>0.5675245786054595</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6368594773857299</v>
+        <v>0.6345477527990621</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>898</v>
@@ -5256,19 +5256,19 @@
         <v>972451</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>927325</v>
+        <v>930012</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1013991</v>
+        <v>1016203</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5525712301366519</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5269295529372963</v>
+        <v>0.52845595526042</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.576174977098114</v>
+        <v>0.5774322714777076</v>
       </c>
     </row>
     <row r="27">
@@ -5360,19 +5360,19 @@
         <v>2796</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7455</v>
+        <v>7723</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005558911126446364</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001769415889821477</v>
+        <v>0.001759020133321757</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01482081203548039</v>
+        <v>0.01535267179185154</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4756</v>
+        <v>4771</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002092361829591554</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01050510124220429</v>
+        <v>0.01053772929094027</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -5402,19 +5402,19 @@
         <v>3744</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8701</v>
+        <v>8511</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003916832465879105</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.000993344616986942</v>
+        <v>0.0009963411349018982</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009103818929388196</v>
+        <v>0.008905232990817981</v>
       </c>
     </row>
     <row r="29">
@@ -5431,19 +5431,19 @@
         <v>30975</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20450</v>
+        <v>20724</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43643</v>
+        <v>44510</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06157770479989227</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04065469567129758</v>
+        <v>0.04119914290068659</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08676103933813495</v>
+        <v>0.08848507594872018</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -5452,19 +5452,19 @@
         <v>34017</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23934</v>
+        <v>23833</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48867</v>
+        <v>47239</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07513624061253768</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05286457069972657</v>
+        <v>0.05264148069750969</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1079371284499816</v>
+        <v>0.1043403204311274</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>57</v>
@@ -5473,19 +5473,19 @@
         <v>64992</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>49456</v>
+        <v>48802</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>84343</v>
+        <v>82679</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06800028253351406</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0517449840293497</v>
+        <v>0.05106154054247553</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0882470393980979</v>
+        <v>0.08650645503631302</v>
       </c>
     </row>
     <row r="30">
@@ -5502,19 +5502,19 @@
         <v>44795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33213</v>
+        <v>32354</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>60331</v>
+        <v>59985</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08905141750773557</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06602763873179932</v>
+        <v>0.06431848224994115</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1199375939733844</v>
+        <v>0.1192499309657141</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -5523,19 +5523,19 @@
         <v>47847</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>36050</v>
+        <v>35596</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61833</v>
+        <v>62808</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1056846143677723</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07962650630366412</v>
+        <v>0.07862342461118385</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1365767698281063</v>
+        <v>0.1387303002968458</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>88</v>
@@ -5544,19 +5544,19 @@
         <v>92642</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>75171</v>
+        <v>74524</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>113183</v>
+        <v>112445</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0969304393481755</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07865086042203548</v>
+        <v>0.07797407398844527</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1184223704062453</v>
+        <v>0.1176497843945107</v>
       </c>
     </row>
     <row r="31">
@@ -5573,19 +5573,19 @@
         <v>173443</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>153367</v>
+        <v>152571</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>197508</v>
+        <v>195486</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.344800595615426</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.304891197281117</v>
+        <v>0.3033090292512762</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3926420134284321</v>
+        <v>0.3886225507563172</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>92</v>
@@ -5594,19 +5594,19 @@
         <v>99361</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>81160</v>
+        <v>82712</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>119131</v>
+        <v>119051</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2194677322225239</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1792654312683593</v>
+        <v>0.182693402621838</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2631353161954847</v>
+        <v>0.2629578970609115</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>254</v>
@@ -5615,19 +5615,19 @@
         <v>272803</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>243542</v>
+        <v>244703</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>303707</v>
+        <v>302017</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2854313489031396</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2548158350087107</v>
+        <v>0.2560307107494077</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3177655641146568</v>
+        <v>0.3159973155492559</v>
       </c>
     </row>
     <row r="32">
@@ -5644,19 +5644,19 @@
         <v>6434</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2129</v>
+        <v>2138</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16246</v>
+        <v>15704</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01279014165016957</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004232160169925349</v>
+        <v>0.004249916370901101</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03229622455336886</v>
+        <v>0.03122010366310321</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -5665,19 +5665,19 @@
         <v>9048</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4776</v>
+        <v>4225</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19105</v>
+        <v>17226</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01998457203499448</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01054915935777115</v>
+        <v>0.009333215087597227</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04219943696113364</v>
+        <v>0.03804947430533417</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -5686,19 +5686,19 @@
         <v>15481</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8723</v>
+        <v>8279</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>26577</v>
+        <v>26236</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01619808990019916</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009126412867509787</v>
+        <v>0.00866221300229774</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0278069075816462</v>
+        <v>0.02745038450669857</v>
       </c>
     </row>
     <row r="33">
@@ -5762,19 +5762,19 @@
         <v>244580</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>220953</v>
+        <v>221429</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>269084</v>
+        <v>266723</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4862212293003302</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.439250781487321</v>
+        <v>0.4401971686492459</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5349335584077081</v>
+        <v>0.5302408617473006</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>235</v>
@@ -5783,19 +5783,19 @@
         <v>261516</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>239538</v>
+        <v>239420</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>281845</v>
+        <v>283390</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.57763447893258</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5290906084179889</v>
+        <v>0.5288294156002423</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6225378392350495</v>
+        <v>0.6259487358602271</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>457</v>
@@ -5804,19 +5804,19 @@
         <v>506096</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>475212</v>
+        <v>473231</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>540134</v>
+        <v>537774</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5295230068490925</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4972090956110695</v>
+        <v>0.4951365612826991</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5651369159958036</v>
+        <v>0.5626674641731011</v>
       </c>
     </row>
     <row r="35">
@@ -5908,19 +5908,19 @@
         <v>21583</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13509</v>
+        <v>13782</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31731</v>
+        <v>32341</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006338255846866273</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003967034800121214</v>
+        <v>0.004047427479623906</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009318192658570921</v>
+        <v>0.009497540161417182</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>39</v>
@@ -5929,19 +5929,19 @@
         <v>40621</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>30085</v>
+        <v>29172</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>55766</v>
+        <v>54574</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01147600009960829</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.008499385547431168</v>
+        <v>0.008241324021157702</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01575472630643404</v>
+        <v>0.01541787741105155</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>61</v>
@@ -5950,19 +5950,19 @@
         <v>62204</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>48335</v>
+        <v>47979</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>81213</v>
+        <v>79441</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.008956857425003968</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006959824425055518</v>
+        <v>0.006908557662881766</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01169388646793966</v>
+        <v>0.01143871414414599</v>
       </c>
     </row>
     <row r="37">
@@ -5979,19 +5979,19 @@
         <v>224840</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>194591</v>
+        <v>195111</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>257961</v>
+        <v>254635</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06602805804252648</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05714476000103301</v>
+        <v>0.05729768040372619</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07575435249165158</v>
+        <v>0.0747777877413246</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>217</v>
@@ -6000,19 +6000,19 @@
         <v>240281</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>209722</v>
+        <v>210735</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>270664</v>
+        <v>275260</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06788229810141111</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05924913587839648</v>
+        <v>0.05953523951681168</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07646608217503378</v>
+        <v>0.07776452396384979</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>429</v>
@@ -6021,19 +6021,19 @@
         <v>465121</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>424963</v>
+        <v>420834</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>512169</v>
+        <v>508892</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06697312570366007</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06119070722869645</v>
+        <v>0.0605962167285312</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0737475513655724</v>
+        <v>0.07327581177944482</v>
       </c>
     </row>
     <row r="38">
@@ -6050,19 +6050,19 @@
         <v>319776</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>286896</v>
+        <v>284630</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>357297</v>
+        <v>355774</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0939074161906045</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08425186618540238</v>
+        <v>0.0835863024394467</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.104926137631498</v>
+        <v>0.1044789572677891</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>361</v>
@@ -6071,19 +6071,19 @@
         <v>389664</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>356806</v>
+        <v>351161</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>430618</v>
+        <v>428722</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1100849142032045</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1008022947393982</v>
+        <v>0.0992072772190576</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1216550811365415</v>
+        <v>0.1211192687791962</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>670</v>
@@ -6092,19 +6092,19 @@
         <v>709440</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>662593</v>
+        <v>666809</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>762283</v>
+        <v>762784</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.102152751057848</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09540723112772852</v>
+        <v>0.09601431622639502</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1097616776524163</v>
+        <v>0.1098339116348178</v>
       </c>
     </row>
     <row r="39">
@@ -6121,19 +6121,19 @@
         <v>1068831</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1009563</v>
+        <v>1014897</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1123529</v>
+        <v>1120342</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3138797263024457</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2964747722988912</v>
+        <v>0.2980412721980545</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3299427213224384</v>
+        <v>0.3290067872376238</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>613</v>
@@ -6142,19 +6142,19 @@
         <v>645236</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>602097</v>
+        <v>599801</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>691400</v>
+        <v>695014</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1822871513540398</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1701000149819341</v>
+        <v>0.169451161766271</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1953291430981368</v>
+        <v>0.1963500802184708</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1629</v>
@@ -6163,19 +6163,19 @@
         <v>1714066</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1646657</v>
+        <v>1640201</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1796701</v>
+        <v>1787436</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2468097229158054</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2371033793426058</v>
+        <v>0.23617385576793</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2587083562612593</v>
+        <v>0.2573743416058078</v>
       </c>
     </row>
     <row r="40">
@@ -6192,19 +6192,19 @@
         <v>48470</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>35944</v>
+        <v>35962</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>66385</v>
+        <v>64652</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01423400481473906</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01055558960346792</v>
+        <v>0.01056075354131742</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01949500274164088</v>
+        <v>0.01898601514894626</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>50</v>
@@ -6213,19 +6213,19 @@
         <v>55343</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>41873</v>
+        <v>42434</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>72503</v>
+        <v>72498</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0156350843749188</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01182970251001716</v>
+        <v>0.0119882144008607</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02048288321708628</v>
+        <v>0.02048161513730712</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>94</v>
@@ -6234,19 +6234,19 @@
         <v>103813</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>83126</v>
+        <v>85130</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>126314</v>
+        <v>126424</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01494810597799277</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01196939179603874</v>
+        <v>0.0122578956500186</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01818809430948155</v>
+        <v>0.01820384203431038</v>
       </c>
     </row>
     <row r="41">
@@ -6310,19 +6310,19 @@
         <v>1721724</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1660845</v>
+        <v>1665221</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1786164</v>
+        <v>1782782</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.505612538802818</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4877345561504604</v>
+        <v>0.4890193982036605</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5245365050226731</v>
+        <v>0.5235431889551676</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2001</v>
@@ -6331,19 +6331,19 @@
         <v>2168522</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2106020</v>
+        <v>2102562</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2226069</v>
+        <v>2229492</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6126345518668175</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.594977077087569</v>
+        <v>0.5940002172135601</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6288924666868664</v>
+        <v>0.6298592861804652</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3587</v>
@@ -6352,19 +6352,19 @@
         <v>3890246</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3794881</v>
+        <v>3807427</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3965473</v>
+        <v>3973156</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5601594369196897</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5464277656770468</v>
+        <v>0.5482343185599532</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5709914486080543</v>
+        <v>0.5720977789501144</v>
       </c>
     </row>
     <row r="43">
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6246</v>
+        <v>5668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001484210896005797</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004973056861570872</v>
+        <v>0.004513314840198674</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6191</v>
+        <v>6489</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0007821929627646988</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002597787877977728</v>
+        <v>0.002722913326361005</v>
       </c>
     </row>
     <row r="5">
@@ -6759,19 +6759,19 @@
         <v>36077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25033</v>
+        <v>25757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50018</v>
+        <v>49739</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03200723863947404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02220851956736798</v>
+        <v>0.02285091767941518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04437551050410139</v>
+        <v>0.04412759441806874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -6780,19 +6780,19 @@
         <v>49815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37065</v>
+        <v>36160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65894</v>
+        <v>65561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03966486790303139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02951323772926328</v>
+        <v>0.02879257969965717</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05246759880949964</v>
+        <v>0.05220308441046773</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -6801,19 +6801,19 @@
         <v>85892</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71098</v>
+        <v>70187</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>106479</v>
+        <v>105361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03604288056713726</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02983488062117675</v>
+        <v>0.02945262054570772</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0446816264400958</v>
+        <v>0.04421244279659901</v>
       </c>
     </row>
     <row r="6">
@@ -6830,19 +6830,19 @@
         <v>148995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>127232</v>
+        <v>127229</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>173069</v>
+        <v>172352</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1321864212460603</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1128783016965498</v>
+        <v>0.1128753603395755</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1535439089844579</v>
+        <v>0.1529078432140157</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -6851,19 +6851,19 @@
         <v>162387</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>139174</v>
+        <v>139986</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>186059</v>
+        <v>186511</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1293007034094058</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1108173814205122</v>
+        <v>0.1114633942157205</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1481494899481663</v>
+        <v>0.1485093130671263</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>307</v>
@@ -6872,19 +6872,19 @@
         <v>311383</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>277029</v>
+        <v>279083</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>345616</v>
+        <v>344349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1306656210751209</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1162498550586046</v>
+        <v>0.1171117072533568</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1450307128104869</v>
+        <v>0.1444991588743694</v>
       </c>
     </row>
     <row r="7">
@@ -6901,19 +6901,19 @@
         <v>303514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>273344</v>
+        <v>271593</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>332982</v>
+        <v>334121</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2692733375777246</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2425066952815103</v>
+        <v>0.2409532743583714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2954168711538452</v>
+        <v>0.2964267955559582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>241</v>
@@ -6922,19 +6922,19 @@
         <v>238200</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>212335</v>
+        <v>211948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267782</v>
+        <v>266527</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1896666839893733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1690716929501945</v>
+        <v>0.1687631186031801</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2132211230904416</v>
+        <v>0.2122220094994977</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>525</v>
@@ -6943,19 +6943,19 @@
         <v>541715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>498824</v>
+        <v>502380</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>582653</v>
+        <v>589934</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2273198898610786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2093215140116755</v>
+        <v>0.2108139125192632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2444985995281848</v>
+        <v>0.2475541712234887</v>
       </c>
     </row>
     <row r="8">
@@ -6972,19 +6972,19 @@
         <v>14577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7857</v>
+        <v>8090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25209</v>
+        <v>24017</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01293261786177384</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006970421001649465</v>
+        <v>0.007177626633866456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0223651238703257</v>
+        <v>0.02130745117988138</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -6993,19 +6993,19 @@
         <v>18938</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10846</v>
+        <v>11013</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27982</v>
+        <v>28157</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01507921770450638</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008636157185014147</v>
+        <v>0.008769260066980221</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02228026373516425</v>
+        <v>0.02241992544155664</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -7014,19 +7014,19 @@
         <v>33515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24196</v>
+        <v>23032</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46901</v>
+        <v>47784</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0140638959674499</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01015349324385142</v>
+        <v>0.009664732110218162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01968107236331229</v>
+        <v>0.02005156807730618</v>
       </c>
     </row>
     <row r="9">
@@ -7090,19 +7090,19 @@
         <v>623997</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>587311</v>
+        <v>588712</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>656131</v>
+        <v>654384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5536003846749672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5210534797520767</v>
+        <v>0.5222965216521682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5821098068978907</v>
+        <v>0.5805596178080861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>709</v>
@@ -7111,19 +7111,19 @@
         <v>784685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>748877</v>
+        <v>751185</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>820483</v>
+        <v>820304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6248043160976774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5962917637888118</v>
+        <v>0.5981292734082507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6533078394881413</v>
+        <v>0.653165533064397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1303</v>
@@ -7132,19 +7132,19 @@
         <v>1408682</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1359100</v>
+        <v>1354562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1456505</v>
+        <v>1456403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5911255195664487</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5703193336205263</v>
+        <v>0.5684151484304246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6111932200962389</v>
+        <v>0.6111505429162366</v>
       </c>
     </row>
     <row r="11">
@@ -7283,19 +7283,19 @@
         <v>20630</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12906</v>
+        <v>12796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31461</v>
+        <v>31251</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02277696946975338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01424844091038254</v>
+        <v>0.01412796852695255</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03473422898635757</v>
+        <v>0.03450246902330454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -7304,19 +7304,19 @@
         <v>35756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25126</v>
+        <v>26296</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49463</v>
+        <v>49607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03580736574299009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02516247426641778</v>
+        <v>0.02633419929320897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04953406159921552</v>
+        <v>0.0496783734821821</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -7325,19 +7325,19 @@
         <v>56386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43479</v>
+        <v>42207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73194</v>
+        <v>72617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02960970095762017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02283179162383225</v>
+        <v>0.02216389536519959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03843570240803956</v>
+        <v>0.03813276754131429</v>
       </c>
     </row>
     <row r="14">
@@ -7354,19 +7354,19 @@
         <v>133323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112438</v>
+        <v>114146</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154928</v>
+        <v>156888</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1471960993680219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1241380051142005</v>
+        <v>0.1260227162728116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1710481417688127</v>
+        <v>0.173212648691632</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -7375,19 +7375,19 @@
         <v>154790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133500</v>
+        <v>133363</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177683</v>
+        <v>178649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1550127093842436</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1336923286785773</v>
+        <v>0.133554232408535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1779386005422448</v>
+        <v>0.1789059961839599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>282</v>
@@ -7396,19 +7396,19 @@
         <v>288114</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>256362</v>
+        <v>259018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>321545</v>
+        <v>323232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1512948847208442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1346211149476828</v>
+        <v>0.13601606032046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1688505957787945</v>
+        <v>0.1697364199172329</v>
       </c>
     </row>
     <row r="15">
@@ -7425,19 +7425,19 @@
         <v>269952</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>243164</v>
+        <v>241662</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>297436</v>
+        <v>298352</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2980410533087189</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2684662423716307</v>
+        <v>0.2668079468325962</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3283852239924119</v>
+        <v>0.3293964566125098</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>192</v>
@@ -7446,19 +7446,19 @@
         <v>190527</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>168522</v>
+        <v>168518</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>215505</v>
+        <v>216066</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1908010189160044</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1687638581443631</v>
+        <v>0.1687599168149078</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2158149239853504</v>
+        <v>0.2163763569402974</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>452</v>
@@ -7467,19 +7467,19 @@
         <v>460479</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>425821</v>
+        <v>422580</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>498040</v>
+        <v>498943</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2418077397248483</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2236082348078768</v>
+        <v>0.2219062014335036</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.26153160817526</v>
+        <v>0.2620062045974975</v>
       </c>
     </row>
     <row r="16">
@@ -7496,19 +7496,19 @@
         <v>9023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4173</v>
+        <v>3992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17187</v>
+        <v>17277</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009962280441479079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004606746641352308</v>
+        <v>0.004407075699989179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0189753972047643</v>
+        <v>0.01907480307937889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -7517,19 +7517,19 @@
         <v>8854</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3985</v>
+        <v>3752</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17650</v>
+        <v>17400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008866539770531198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003990385817095272</v>
+        <v>0.003757723701811686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01767550967860076</v>
+        <v>0.01742492964741606</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -7538,19 +7538,19 @@
         <v>17877</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10492</v>
+        <v>10559</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29107</v>
+        <v>29406</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009387708369538388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005509714701399404</v>
+        <v>0.005544841251546238</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01528464852197449</v>
+        <v>0.01544151606818905</v>
       </c>
     </row>
     <row r="17">
@@ -7614,19 +7614,19 @@
         <v>472825</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>441920</v>
+        <v>441530</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>504113</v>
+        <v>501267</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5220235974120269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4879026785999778</v>
+        <v>0.4874720442151121</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.556567537751366</v>
+        <v>0.5534247807518367</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>554</v>
@@ -7635,19 +7635,19 @@
         <v>608638</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>579021</v>
+        <v>579017</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>637795</v>
+        <v>638480</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6095123661862307</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5798532597595589</v>
+        <v>0.5798491487061437</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6387117986591083</v>
+        <v>0.6393973179424584</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1017</v>
@@ -7656,19 +7656,19 @@
         <v>1081463</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1041688</v>
+        <v>1040913</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1126138</v>
+        <v>1125548</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5678999662271489</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5470134053701479</v>
+        <v>0.5466062150826106</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5913599136866472</v>
+        <v>0.5910499708790008</v>
       </c>
     </row>
     <row r="19">
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6855</v>
+        <v>5793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00149812406098543</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008927518335532326</v>
+        <v>0.007545282431238357</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6812</v>
+        <v>6332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0007227317595837711</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004280150267307449</v>
+        <v>0.003978762971077162</v>
       </c>
     </row>
     <row r="21">
@@ -7823,19 +7823,19 @@
         <v>29208</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20214</v>
+        <v>20148</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41171</v>
+        <v>41243</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03545690953632195</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02453898425596557</v>
+        <v>0.02445912686574101</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04997957633626541</v>
+        <v>0.05006674340674448</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -7844,19 +7844,19 @@
         <v>26176</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17345</v>
+        <v>17240</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38791</v>
+        <v>37699</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03409099279068192</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02259006552148133</v>
+        <v>0.02245271151906029</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0505219421567463</v>
+        <v>0.04909874335649397</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -7865,19 +7865,19 @@
         <v>55383</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>42079</v>
+        <v>42691</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>71038</v>
+        <v>71583</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03479795782549234</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02643864822646609</v>
+        <v>0.02682288571285567</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04463391084385879</v>
+        <v>0.04497635612363805</v>
       </c>
     </row>
     <row r="22">
@@ -7894,19 +7894,19 @@
         <v>118779</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100685</v>
+        <v>98040</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139225</v>
+        <v>140915</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1441918399739958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1222256926010661</v>
+        <v>0.1190153796881792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1690118435004573</v>
+        <v>0.171063713386382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>138</v>
@@ -7915,19 +7915,19 @@
         <v>137778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>118405</v>
+        <v>118728</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159615</v>
+        <v>161155</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1794412920771201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1542107042401551</v>
+        <v>0.1546309796150657</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2078827876289186</v>
+        <v>0.209888040735437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>248</v>
@@ -7936,19 +7936,19 @@
         <v>256557</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>226809</v>
+        <v>228283</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>286378</v>
+        <v>287970</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1611970394807025</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1425060712349422</v>
+        <v>0.1434323802812684</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1799341013932659</v>
+        <v>0.1809340769135602</v>
       </c>
     </row>
     <row r="23">
@@ -7965,19 +7965,19 @@
         <v>249625</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>222822</v>
+        <v>223446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>276206</v>
+        <v>273551</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3030311882654645</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2704936053958841</v>
+        <v>0.2712520350288555</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3352990614013572</v>
+        <v>0.332077005204244</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>133</v>
@@ -7986,19 +7986,19 @@
         <v>132120</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>111937</v>
+        <v>112862</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>152162</v>
+        <v>155657</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1720722982789764</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1457871969940504</v>
+        <v>0.1469915628416745</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1981759050734142</v>
+        <v>0.20272698475084</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>372</v>
@@ -8007,19 +8007,19 @@
         <v>381744</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>349081</v>
+        <v>349380</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>417840</v>
+        <v>418622</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2398534104979712</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2193309184417719</v>
+        <v>0.2195188493857182</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2625329006389803</v>
+        <v>0.2630239499496628</v>
       </c>
     </row>
     <row r="24">
@@ -8036,19 +8036,19 @@
         <v>15481</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9381</v>
+        <v>8039</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24816</v>
+        <v>24835</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01879289154108978</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01138754396444679</v>
+        <v>0.009759059538247405</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03012561313688725</v>
+        <v>0.03014869726921886</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -8057,19 +8057,19 @@
         <v>14048</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8420</v>
+        <v>8396</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22394</v>
+        <v>22810</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01829630042763673</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01096654662164269</v>
+        <v>0.01093489542723302</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02916548734460144</v>
+        <v>0.02970714192968845</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -8078,19 +8078,19 @@
         <v>29529</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20632</v>
+        <v>19903</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>42507</v>
+        <v>41520</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01855332381865196</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01296327038922108</v>
+        <v>0.01250494147540572</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02670741358762791</v>
+        <v>0.02608729969728637</v>
       </c>
     </row>
     <row r="25">
@@ -8154,19 +8154,19 @@
         <v>410666</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>378884</v>
+        <v>381815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>436966</v>
+        <v>438164</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.498527170683128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4599454580262387</v>
+        <v>0.4635032926723877</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5304538878072702</v>
+        <v>0.5319077651694594</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>412</v>
@@ -8175,19 +8175,19 @@
         <v>456543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>428382</v>
+        <v>426329</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>483090</v>
+        <v>483346</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5946009923645994</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5579242855624839</v>
+        <v>0.5552501375025345</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6291759479974617</v>
+        <v>0.6295088461682585</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>808</v>
@@ -8196,19 +8196,19 @@
         <v>867209</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>825571</v>
+        <v>827970</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>906697</v>
+        <v>911486</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5448755366175982</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5187137728597271</v>
+        <v>0.520221276599826</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5696858022116056</v>
+        <v>0.5726950910385595</v>
       </c>
     </row>
     <row r="27">
@@ -8347,19 +8347,19 @@
         <v>21123</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13174</v>
+        <v>13382</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32802</v>
+        <v>32339</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04191881918683315</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0261438380204696</v>
+        <v>0.02655723319575667</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06509534077341626</v>
+        <v>0.06417581915650993</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -8368,19 +8368,19 @@
         <v>22140</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14418</v>
+        <v>13683</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32593</v>
+        <v>33474</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04521248517215311</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02944320020513284</v>
+        <v>0.02794090766455687</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06655680526269667</v>
+        <v>0.06835716715608714</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -8389,19 +8389,19 @@
         <v>43264</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31896</v>
+        <v>30513</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60865</v>
+        <v>58537</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04354210139992985</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03210176627953806</v>
+        <v>0.03070893976581747</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06125655936348613</v>
+        <v>0.05891426507978973</v>
       </c>
     </row>
     <row r="30">
@@ -8418,19 +8418,19 @@
         <v>59737</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44850</v>
+        <v>45395</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>75534</v>
+        <v>75040</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1185471833640881</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08900376463909693</v>
+        <v>0.09008573090661773</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1498962284557212</v>
+        <v>0.1489159651709702</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>62</v>
@@ -8439,19 +8439,19 @@
         <v>62572</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>49056</v>
+        <v>49715</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>76623</v>
+        <v>79518</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1277760348250192</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1001769939290909</v>
+        <v>0.1015211939386642</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.156470885357874</v>
+        <v>0.1623820002807312</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>117</v>
@@ -8460,19 +8460,19 @@
         <v>122308</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>104256</v>
+        <v>102641</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>144106</v>
+        <v>145583</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1230956198147216</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1049274252763952</v>
+        <v>0.1033018822793746</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1450338171887527</v>
+        <v>0.1465205274765864</v>
       </c>
     </row>
     <row r="31">
@@ -8489,19 +8489,19 @@
         <v>116820</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>98493</v>
+        <v>99570</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>136324</v>
+        <v>137374</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2318280923591055</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1954594790254914</v>
+        <v>0.1975959226980694</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.270533525898636</v>
+        <v>0.2726170287340591</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>94</v>
@@ -8510,19 +8510,19 @@
         <v>96117</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>77736</v>
+        <v>79822</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>116200</v>
+        <v>115755</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1962779012719895</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1587430570552414</v>
+        <v>0.1630032939586492</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2372899265453653</v>
+        <v>0.2363804936225902</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>201</v>
@@ -8531,19 +8531,19 @@
         <v>212936</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>186210</v>
+        <v>188580</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>239313</v>
+        <v>240979</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2143071922067792</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1874082982340273</v>
+        <v>0.1897939243653131</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2408530482790081</v>
+        <v>0.2425301072486208</v>
       </c>
     </row>
     <row r="32">
@@ -8560,19 +8560,19 @@
         <v>7088</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3137</v>
+        <v>2946</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13963</v>
+        <v>14006</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01406628237981882</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006225771525476992</v>
+        <v>0.005846395708080011</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02770988585307996</v>
+        <v>0.02779396063001534</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -8581,19 +8581,19 @@
         <v>7916</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2948</v>
+        <v>3606</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15629</v>
+        <v>18032</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0161644979474613</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006019966526188834</v>
+        <v>0.00736312963439443</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03191612003518645</v>
+        <v>0.03682310361195401</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -8602,19 +8602,19 @@
         <v>15004</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9103</v>
+        <v>8353</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>25961</v>
+        <v>24668</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01510038724211431</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00916186094451814</v>
+        <v>0.008406839566551848</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02612814302575835</v>
+        <v>0.0248269760352477</v>
       </c>
     </row>
     <row r="33">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5351</v>
+        <v>6186</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.002127191268438532</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0106187544354341</v>
+        <v>0.01227602931727003</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5394</v>
+        <v>5995</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.001078805741399292</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.005428440234254313</v>
+        <v>0.006033280119217476</v>
       </c>
     </row>
     <row r="34">
@@ -8694,19 +8694,19 @@
         <v>298067</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>274199</v>
+        <v>275877</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>320225</v>
+        <v>321144</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5915124314417159</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5441451918345644</v>
+        <v>0.5474755193931155</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6354838253453358</v>
+        <v>0.6373084934194437</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>270</v>
@@ -8715,19 +8715,19 @@
         <v>300953</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>279851</v>
+        <v>278832</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>322994</v>
+        <v>322221</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6145690807833768</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.571475901501673</v>
+        <v>0.5693963590657527</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6595784905509762</v>
+        <v>0.6579991543668792</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>549</v>
@@ -8736,19 +8736,19 @@
         <v>599020</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>568055</v>
+        <v>566145</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>630078</v>
+        <v>630232</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6028758935950557</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.571711636969594</v>
+        <v>0.5697895692458262</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6341344065911285</v>
+        <v>0.6342893220454797</v>
       </c>
     </row>
     <row r="35">
@@ -8853,19 +8853,19 @@
         <v>3014</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8748</v>
+        <v>8320</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0008582900633507344</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0002627671060150783</v>
+        <v>0.0002621130951721112</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.00249088190570916</v>
+        <v>0.002368961111976217</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -8874,19 +8874,19 @@
         <v>3014</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8358</v>
+        <v>9275</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0004385980822901899</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0001343008859098299</v>
+        <v>0.0001366420751683134</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.00121619172235611</v>
+        <v>0.001349514703118998</v>
       </c>
     </row>
     <row r="37">
@@ -8903,19 +8903,19 @@
         <v>107039</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>86143</v>
+        <v>88071</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>128686</v>
+        <v>128136</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0318512714455827</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02563350387858074</v>
+        <v>0.0262071772273029</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03829273843435495</v>
+        <v>0.03812908166453793</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>131</v>
@@ -8924,19 +8924,19 @@
         <v>133887</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>111314</v>
+        <v>111468</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>158260</v>
+        <v>157079</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03812299327025059</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03169560662113762</v>
+        <v>0.03173935412131899</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04506305728112499</v>
+        <v>0.04472688901842343</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>229</v>
@@ -8945,19 +8945,19 @@
         <v>240925</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>212221</v>
+        <v>209700</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>272810</v>
+        <v>272427</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03505620796112149</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03087954166636583</v>
+        <v>0.03051276650221883</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03969563110358956</v>
+        <v>0.03963994712151864</v>
       </c>
     </row>
     <row r="38">
@@ -8974,19 +8974,19 @@
         <v>460835</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>424434</v>
+        <v>420483</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>505662</v>
+        <v>503564</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1371295388349925</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1262977429814703</v>
+        <v>0.1251219906801351</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.150468588813496</v>
+        <v>0.1498444300771139</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>520</v>
@@ -8995,19 +8995,19 @@
         <v>517527</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>475528</v>
+        <v>477427</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>559783</v>
+        <v>560740</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1473609930041113</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1354022892574473</v>
+        <v>0.1359427917651852</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1593928975877175</v>
+        <v>0.1596655614940671</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>954</v>
@@ -9016,19 +9016,19 @@
         <v>978362</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>921728</v>
+        <v>919943</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1040206</v>
+        <v>1038392</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1423579532944311</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1341174072738223</v>
+        <v>0.133857687841144</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1513566773497837</v>
+        <v>0.15109274318062</v>
       </c>
     </row>
     <row r="39">
@@ -9045,19 +9045,19 @@
         <v>939911</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>888825</v>
+        <v>888953</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>991997</v>
+        <v>990828</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2796869851502591</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2644854828847364</v>
+        <v>0.2645235393638163</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2951861357388538</v>
+        <v>0.294838203897127</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>660</v>
@@ -9066,19 +9066,19 @@
         <v>656964</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>611577</v>
+        <v>613150</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>703279</v>
+        <v>705908</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1870644350379649</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1741408044934062</v>
+        <v>0.1745886681931488</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2002522229150644</v>
+        <v>0.2010007642585738</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1550</v>
@@ -9087,19 +9087,19 @@
         <v>1596875</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1523978</v>
+        <v>1524312</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1669044</v>
+        <v>1669306</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.232355582177371</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2217485847877904</v>
+        <v>0.2217972936085364</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2428567272943505</v>
+        <v>0.2428948502647831</v>
       </c>
     </row>
     <row r="40">
@@ -9116,19 +9116,19 @@
         <v>46169</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>33393</v>
+        <v>34342</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>62405</v>
+        <v>64028</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01373852687475402</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009936820898929544</v>
+        <v>0.01021892603501907</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0185696244974712</v>
+        <v>0.0190526119118607</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>49</v>
@@ -9137,19 +9137,19 @@
         <v>49756</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>36644</v>
+        <v>36582</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>63426</v>
+        <v>63142</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01416742549876941</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01043416726318766</v>
+        <v>0.0104162694315753</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01806000244601626</v>
+        <v>0.0179791109270985</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>92</v>
@@ -9158,19 +9158,19 @@
         <v>95925</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>77925</v>
+        <v>78184</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>117694</v>
+        <v>118323</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01395769999817998</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01133859801216062</v>
+        <v>0.01137634392363577</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0171252046317509</v>
+        <v>0.01721675293891381</v>
       </c>
     </row>
     <row r="41">
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5884</v>
+        <v>6024</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0003189645215985373</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.001750841234006976</v>
+        <v>0.001792617215431899</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>4916</v>
+        <v>5382</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0001559692435854464</v>
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0007152573074480002</v>
+        <v>0.0007831136985783842</v>
       </c>
     </row>
     <row r="42">
@@ -9250,19 +9250,19 @@
         <v>1805555</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1746837</v>
+        <v>1747410</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1857551</v>
+        <v>1870085</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5372747131728132</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5198020519766393</v>
+        <v>0.5199726542498624</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5527469410302251</v>
+        <v>0.5564766167185627</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1945</v>
@@ -9271,19 +9271,19 @@
         <v>2150819</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2090476</v>
+        <v>2087836</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2204474</v>
+        <v>2206091</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.612425863125553</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.595243737594557</v>
+        <v>0.5944918436246828</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6277034945731662</v>
+        <v>0.6281638453727412</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3677</v>
@@ -9292,19 +9292,19 @@
         <v>3956374</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3865247</v>
+        <v>3868531</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4029747</v>
+        <v>4044310</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5756779892430208</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5624183788860543</v>
+        <v>0.5628963056194197</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5863542445728114</v>
+        <v>0.5884731980284429</v>
       </c>
     </row>
     <row r="43">
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4049</v>
+        <v>4849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002853009274822872</v>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01225851375006336</v>
+        <v>0.01468138288529054</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -9657,19 +9657,19 @@
         <v>7721</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3524</v>
+        <v>3100</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18332</v>
+        <v>17999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02102233565232214</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009596474914301791</v>
+        <v>0.008442077695848389</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04991466600311125</v>
+        <v>0.04901007614338489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -9678,19 +9678,19 @@
         <v>8663</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4125</v>
+        <v>4063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17590</v>
+        <v>17973</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01241885544666561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005913278499480578</v>
+        <v>0.005824968129042158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02521565567944542</v>
+        <v>0.0257650158221154</v>
       </c>
     </row>
     <row r="5">
@@ -9707,19 +9707,19 @@
         <v>11848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6203</v>
+        <v>5917</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20882</v>
+        <v>20156</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03586841325047859</v>
+        <v>0.0358684132504786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01877859931890431</v>
+        <v>0.01791262624023375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06322026617189841</v>
+        <v>0.06102155979518158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -9728,19 +9728,19 @@
         <v>18101</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11922</v>
+        <v>11843</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25907</v>
+        <v>25826</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04928792884491683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0324616163182071</v>
+        <v>0.03224765649649777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07054108514328829</v>
+        <v>0.07032089582989423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -9749,19 +9749,19 @@
         <v>29949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20803</v>
+        <v>20709</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40378</v>
+        <v>40834</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.042933563559849</v>
+        <v>0.04293356355984901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02982272445546149</v>
+        <v>0.02968758690954051</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05788321975834612</v>
+        <v>0.05853828002069273</v>
       </c>
     </row>
     <row r="6">
@@ -9778,19 +9778,19 @@
         <v>21993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13528</v>
+        <v>13406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34981</v>
+        <v>36032</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06658270577052844</v>
+        <v>0.06658270577052845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04095515511951241</v>
+        <v>0.04058699324124504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1059036527864757</v>
+        <v>0.1090864754262705</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -9799,19 +9799,19 @@
         <v>23751</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16175</v>
+        <v>15810</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33067</v>
+        <v>33530</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06467112244198681</v>
+        <v>0.06467112244198683</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04404270352448338</v>
+        <v>0.04304747996503005</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09003833827444765</v>
+        <v>0.09129779304210711</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -9820,19 +9820,19 @@
         <v>45744</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33539</v>
+        <v>33120</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61429</v>
+        <v>61640</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06557628914915421</v>
+        <v>0.06557628914915423</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04808048466127361</v>
+        <v>0.04747986466572009</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08806105416711538</v>
+        <v>0.08836391400871885</v>
       </c>
     </row>
     <row r="7">
@@ -9849,19 +9849,19 @@
         <v>97078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80057</v>
+        <v>79295</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117951</v>
+        <v>115931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2938984778352061</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2423695019270161</v>
+        <v>0.2400607987131884</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3570916422221607</v>
+        <v>0.3509755919399171</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -9870,19 +9870,19 @@
         <v>54986</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42143</v>
+        <v>42669</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71073</v>
+        <v>69407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1497192011272516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1147491365041823</v>
+        <v>0.1161832309658041</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1935226312887348</v>
+        <v>0.1889853523762071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -9891,19 +9891,19 @@
         <v>152063</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129012</v>
+        <v>131720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178792</v>
+        <v>176266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.21799050229992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1849447380061595</v>
+        <v>0.1888271254247956</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2563074577958863</v>
+        <v>0.2526866582417034</v>
       </c>
     </row>
     <row r="8">
@@ -9920,19 +9920,19 @@
         <v>3452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10091</v>
+        <v>9853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01045200833667386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002852592499527041</v>
+        <v>0.002837878221504973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03055092632183505</v>
+        <v>0.02982995744339186</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -9941,19 +9941,19 @@
         <v>3865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1414</v>
+        <v>1802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8470</v>
+        <v>8496</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01052510840728587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003849750205054326</v>
+        <v>0.004905687474763083</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02306290675883068</v>
+        <v>0.02313271675016232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -9962,19 +9962,19 @@
         <v>7318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3341</v>
+        <v>3307</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13761</v>
+        <v>13230</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01049049430011009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00478974232667211</v>
+        <v>0.004740325233723564</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01972746447171693</v>
+        <v>0.01896551487819733</v>
       </c>
     </row>
     <row r="9">
@@ -10038,19 +10038,19 @@
         <v>194998</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174210</v>
+        <v>176561</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>214884</v>
+        <v>215539</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5903453855322901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.527413051396174</v>
+        <v>0.5345297652613987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6505503860905605</v>
+        <v>0.6525324789412537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>390</v>
@@ -10059,19 +10059,19 @@
         <v>258835</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>241140</v>
+        <v>240760</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>274162</v>
+        <v>274824</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7047743035262366</v>
+        <v>0.7047743035262367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6565934815245974</v>
+        <v>0.6555601000384897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.746509680284654</v>
+        <v>0.7483112253703789</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>600</v>
@@ -10080,19 +10080,19 @@
         <v>453832</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>428809</v>
+        <v>428664</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>480089</v>
+        <v>478709</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6505902952443009</v>
+        <v>0.650590295244301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6147184837297546</v>
+        <v>0.614511115062322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6882318348314479</v>
+        <v>0.6862529008118012</v>
       </c>
     </row>
     <row r="11">
@@ -10184,19 +10184,19 @@
         <v>6186</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2048</v>
+        <v>2223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14118</v>
+        <v>14879</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.00979692587227917</v>
+        <v>0.009796925872279169</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003243711163729544</v>
+        <v>0.003520464834062056</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02235904852322542</v>
+        <v>0.02356387691395407</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -10205,19 +10205,19 @@
         <v>11212</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6609</v>
+        <v>6395</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18059</v>
+        <v>18070</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01656967339674656</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009767603533404617</v>
+        <v>0.009450512339449367</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02668875148967305</v>
+        <v>0.02670507233587635</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -10226,19 +10226,19 @@
         <v>17398</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11123</v>
+        <v>10749</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28433</v>
+        <v>27294</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0133003992374558</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00850338816177121</v>
+        <v>0.00821730534547724</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02173673504919277</v>
+        <v>0.02086596824718273</v>
       </c>
     </row>
     <row r="13">
@@ -10255,19 +10255,19 @@
         <v>37298</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25963</v>
+        <v>26426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51552</v>
+        <v>51313</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0590701554380782</v>
+        <v>0.05907015543807822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04111796817285787</v>
+        <v>0.04185152028115668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08164454609162562</v>
+        <v>0.08126639158267865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -10276,19 +10276,19 @@
         <v>35538</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26540</v>
+        <v>26960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47152</v>
+        <v>47500</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05252093363163342</v>
+        <v>0.05252093363163341</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03922299624395988</v>
+        <v>0.0398427727304454</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06968382942731703</v>
+        <v>0.07019874507842323</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -10297,19 +10297,19 @@
         <v>72837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58581</v>
+        <v>59018</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90495</v>
+        <v>89662</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0556823096519151</v>
+        <v>0.05568230965191513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04478427704084569</v>
+        <v>0.04511801514083599</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06918180493822983</v>
+        <v>0.06854540859897808</v>
       </c>
     </row>
     <row r="14">
@@ -10326,19 +10326,19 @@
         <v>59490</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43607</v>
+        <v>44002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79361</v>
+        <v>78417</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09421659751941247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.069061145048963</v>
+        <v>0.06968650333992002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1256860443727571</v>
+        <v>0.1241905781401037</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -10347,19 +10347,19 @@
         <v>75406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61064</v>
+        <v>62071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91308</v>
+        <v>91607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1114395228088238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09024463222677465</v>
+        <v>0.09173172198888774</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1349411225471235</v>
+        <v>0.1353827100473388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -10368,19 +10368,19 @@
         <v>134896</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113226</v>
+        <v>113152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158404</v>
+        <v>159075</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1031258414863393</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08655928533721295</v>
+        <v>0.0865024654089064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1210971927968411</v>
+        <v>0.1216100706483374</v>
       </c>
     </row>
     <row r="15">
@@ -10397,19 +10397,19 @@
         <v>166196</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>142708</v>
+        <v>143944</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>190745</v>
+        <v>195091</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.263209713385368</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2260112072197191</v>
+        <v>0.2279679750710684</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3020886418544698</v>
+        <v>0.3089706569042412</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>143</v>
@@ -10418,19 +10418,19 @@
         <v>118220</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>100447</v>
+        <v>99819</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>138756</v>
+        <v>137266</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1747131021574856</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1484471636314164</v>
+        <v>0.1475191022364889</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2050622716209006</v>
+        <v>0.2028606765294723</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>279</v>
@@ -10439,19 +10439,19 @@
         <v>284416</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>255764</v>
+        <v>254685</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>316202</v>
+        <v>317648</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2174313170661195</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1955271773507562</v>
+        <v>0.1947022650863465</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2417307643840789</v>
+        <v>0.2428364342576946</v>
       </c>
     </row>
     <row r="16">
@@ -10468,19 +10468,19 @@
         <v>9927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5277</v>
+        <v>5200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18307</v>
+        <v>17620</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01572179628280415</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008357798235699255</v>
+        <v>0.008235235884031151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02899332960311182</v>
+        <v>0.02790562326868502</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -10489,19 +10489,19 @@
         <v>6467</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3307</v>
+        <v>3113</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11806</v>
+        <v>11478</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0095569265876195</v>
+        <v>0.009556926587619497</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004886606121118106</v>
+        <v>0.004601243540198877</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01744792346494553</v>
+        <v>0.01696326358203919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -10510,19 +10510,19 @@
         <v>16394</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10013</v>
+        <v>10529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24134</v>
+        <v>24677</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01253277193207545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00765488181152159</v>
+        <v>0.008049492747485497</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01844987798089314</v>
+        <v>0.01886526590892705</v>
       </c>
     </row>
     <row r="17">
@@ -10586,19 +10586,19 @@
         <v>352323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>325499</v>
+        <v>325533</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>377811</v>
+        <v>378359</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5579848115020579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5155019604068249</v>
+        <v>0.5155564743848254</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5983504597924564</v>
+        <v>0.5992187675899746</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>715</v>
@@ -10607,19 +10607,19 @@
         <v>429810</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>406654</v>
+        <v>408920</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>451358</v>
+        <v>452108</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6351998414176911</v>
+        <v>0.635199841417691</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6009784385897595</v>
+        <v>0.6043274532654213</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6670452854327756</v>
+        <v>0.6681540739635169</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1145</v>
@@ -10628,19 +10628,19 @@
         <v>782133</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>747764</v>
+        <v>750099</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>814537</v>
+        <v>816004</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5979273606260948</v>
+        <v>0.5979273606260949</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.571652833108125</v>
+        <v>0.5734376687395901</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6226995135148884</v>
+        <v>0.6238208238846095</v>
       </c>
     </row>
     <row r="19">
@@ -10732,19 +10732,19 @@
         <v>9246</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4624</v>
+        <v>4597</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16224</v>
+        <v>17325</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01255143492638478</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006277415170836325</v>
+        <v>0.006240672643673442</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02202548422289538</v>
+        <v>0.02351954039954138</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -10753,19 +10753,19 @@
         <v>11000</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6519</v>
+        <v>5672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19763</v>
+        <v>19394</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01492612207584973</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00884584753115622</v>
+        <v>0.007695857812299959</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02681611082781615</v>
+        <v>0.02631589034601156</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -10774,19 +10774,19 @@
         <v>20246</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12896</v>
+        <v>12932</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31583</v>
+        <v>29665</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01373906868492977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008751130491482489</v>
+        <v>0.00877565841093758</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02143240304595394</v>
+        <v>0.02013084276270881</v>
       </c>
     </row>
     <row r="21">
@@ -10803,19 +10803,19 @@
         <v>38869</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27752</v>
+        <v>26981</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54104</v>
+        <v>53415</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0527666047302079</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03767537419932943</v>
+        <v>0.03662865328188015</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07344883590209363</v>
+        <v>0.07251371869377654</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>58</v>
@@ -10824,19 +10824,19 @@
         <v>43658</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34417</v>
+        <v>33328</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56292</v>
+        <v>55135</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.05923893832014713</v>
+        <v>0.05923893832014714</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04669950317628662</v>
+        <v>0.04522245628129309</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0763823144243546</v>
+        <v>0.07481201729367321</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>91</v>
@@ -10845,19 +10845,19 @@
         <v>82527</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>65548</v>
+        <v>66257</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>99754</v>
+        <v>100658</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05600356243628236</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04448150071632261</v>
+        <v>0.04496279498173649</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06769424053163071</v>
+        <v>0.06830731288835648</v>
       </c>
     </row>
     <row r="22">
@@ -10874,19 +10874,19 @@
         <v>42084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29761</v>
+        <v>30096</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57172</v>
+        <v>59000</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05713099002710005</v>
+        <v>0.05713099002710004</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04040206522718006</v>
+        <v>0.04085711023915447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07761375352350097</v>
+        <v>0.08009529584683503</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -10895,19 +10895,19 @@
         <v>82679</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67214</v>
+        <v>67975</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98278</v>
+        <v>98462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1121862486430519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09120190196887575</v>
+        <v>0.09223512906360565</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1333518488490172</v>
+        <v>0.1336017725119679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -10916,19 +10916,19 @@
         <v>124763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105572</v>
+        <v>104810</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147149</v>
+        <v>147829</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08466534701911969</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07164251345992485</v>
+        <v>0.07112497168432109</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09985677703721388</v>
+        <v>0.1003179396675134</v>
       </c>
     </row>
     <row r="23">
@@ -10945,19 +10945,19 @@
         <v>195734</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>169131</v>
+        <v>168721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>225743</v>
+        <v>223790</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2657188155307509</v>
+        <v>0.2657188155307508</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2296047585868414</v>
+        <v>0.2290482154457617</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3064584742776201</v>
+        <v>0.303806591573583</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>160</v>
@@ -10966,19 +10966,19 @@
         <v>128701</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>111791</v>
+        <v>110914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>150320</v>
+        <v>148603</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.174633043866664</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1516880467903105</v>
+        <v>0.150498208311108</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2039678348985904</v>
+        <v>0.2016374885298458</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>319</v>
@@ -10987,19 +10987,19 @@
         <v>324435</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>290266</v>
+        <v>293567</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>362415</v>
+        <v>360047</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2201647991308373</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1969776840335054</v>
+        <v>0.1992172641439527</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.245938834453183</v>
+        <v>0.2443317924384618</v>
       </c>
     </row>
     <row r="24">
@@ -11016,19 +11016,19 @@
         <v>13734</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7747</v>
+        <v>7807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24840</v>
+        <v>23504</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01864510601189987</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01051744079016627</v>
+        <v>0.01059785370455769</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03372216388704054</v>
+        <v>0.03190754990578924</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -11037,19 +11037,19 @@
         <v>9712</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5479</v>
+        <v>5807</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15969</v>
+        <v>15354</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.01317845705489785</v>
+        <v>0.01317845705489786</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007434677589570603</v>
+        <v>0.007879763328502149</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02166809991042727</v>
+        <v>0.02083303962409299</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -11058,19 +11058,19 @@
         <v>23447</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15880</v>
+        <v>16186</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33240</v>
+        <v>35159</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01591111351570382</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01077619020840729</v>
+        <v>0.01098406713226883</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02255674833267186</v>
+        <v>0.02385922652205609</v>
       </c>
     </row>
     <row r="25">
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5458</v>
+        <v>5512</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001458036483832611</v>
@@ -11099,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007409260897125379</v>
+        <v>0.00748256763201898</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5952</v>
+        <v>5396</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0007288400716736435</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.004039317614977455</v>
+        <v>0.003661814342619665</v>
       </c>
     </row>
     <row r="26">
@@ -11150,19 +11150,19 @@
         <v>435879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>403647</v>
+        <v>404849</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>464801</v>
+        <v>462892</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5917290122898239</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5479716205749643</v>
+        <v>0.5496030460886454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6309914823484755</v>
+        <v>0.6284003809140224</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>749</v>
@@ -11171,19 +11171,19 @@
         <v>461229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>436889</v>
+        <v>436528</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>482201</v>
+        <v>482960</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6258371900393894</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.592809690251151</v>
+        <v>0.5923200827602974</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6542937408326662</v>
+        <v>0.6553230876143304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1270</v>
@@ -11192,19 +11192,19 @@
         <v>897109</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>858648</v>
+        <v>856691</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>932184</v>
+        <v>933174</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6087872691414534</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5826870060218448</v>
+        <v>0.5813592810570174</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6325899121431861</v>
+        <v>0.6332616483977656</v>
       </c>
     </row>
     <row r="27">
@@ -11296,19 +11296,19 @@
         <v>20192</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12569</v>
+        <v>12309</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34001</v>
+        <v>33578</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02562755775684937</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01595201396167449</v>
+        <v>0.01562205209253732</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04315309411810574</v>
+        <v>0.04261696684186649</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -11317,19 +11317,19 @@
         <v>14456</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9400</v>
+        <v>9887</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20999</v>
+        <v>20723</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02032915964016674</v>
+        <v>0.02032915964016675</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01321889550454148</v>
+        <v>0.01390468522452586</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02953072112706493</v>
+        <v>0.0291431630141634</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -11338,19 +11338,19 @@
         <v>34648</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24767</v>
+        <v>24281</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48280</v>
+        <v>49292</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02311414090449145</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01652254457448758</v>
+        <v>0.01619796873097394</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03220849113918189</v>
+        <v>0.0328835775639811</v>
       </c>
     </row>
     <row r="29">
@@ -11367,19 +11367,19 @@
         <v>37339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26085</v>
+        <v>25859</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51471</v>
+        <v>52913</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04739038813392266</v>
+        <v>0.04739038813392265</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03310609584174784</v>
+        <v>0.03281926459977916</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06532585929415236</v>
+        <v>0.06715579132478543</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>35</v>
@@ -11388,19 +11388,19 @@
         <v>24458</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18226</v>
+        <v>16713</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34795</v>
+        <v>33071</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03439595044383816</v>
+        <v>0.03439595044383817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02563187403055043</v>
+        <v>0.02350405747191082</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04893243366510006</v>
+        <v>0.04650790351596425</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>68</v>
@@ -11409,19 +11409,19 @@
         <v>61797</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48464</v>
+        <v>48065</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>78083</v>
+        <v>80136</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04122617812970682</v>
+        <v>0.04122617812970683</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03233112250315474</v>
+        <v>0.03206480784221054</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05209032398942869</v>
+        <v>0.05345984270787855</v>
       </c>
     </row>
     <row r="30">
@@ -11438,19 +11438,19 @@
         <v>77195</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>59761</v>
+        <v>57501</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99720</v>
+        <v>97486</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09797518169405556</v>
+        <v>0.09797518169405554</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07584802662387564</v>
+        <v>0.07297971800307507</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1265632447599504</v>
+        <v>0.1237281500846086</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>95</v>
@@ -11459,19 +11459,19 @@
         <v>80300</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65472</v>
+        <v>66038</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98073</v>
+        <v>101228</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1129273361238497</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09207419456906463</v>
+        <v>0.09287016952851847</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1379213879778312</v>
+        <v>0.1423584862971558</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>150</v>
@@ -11480,19 +11480,19 @@
         <v>157495</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>133004</v>
+        <v>130651</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>186111</v>
+        <v>184067</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1050680796030621</v>
+        <v>0.1050680796030622</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08872937493373279</v>
+        <v>0.0871594389817619</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1241580933823025</v>
+        <v>0.1227943471961288</v>
       </c>
     </row>
     <row r="31">
@@ -11509,19 +11509,19 @@
         <v>170883</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>145051</v>
+        <v>145134</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>196503</v>
+        <v>198417</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2168824489582154</v>
+        <v>0.2168824489582153</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1840961587730805</v>
+        <v>0.1842017714934746</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2493988746134829</v>
+        <v>0.251828070217759</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>136</v>
@@ -11530,19 +11530,19 @@
         <v>109577</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>93092</v>
+        <v>91085</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>128366</v>
+        <v>130369</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1540998298141136</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1309168698780921</v>
+        <v>0.1280942320177555</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1805234676491398</v>
+        <v>0.1833398622509544</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>275</v>
@@ -11551,19 +11551,19 @@
         <v>280460</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>250360</v>
+        <v>248393</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>315016</v>
+        <v>314334</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1871000714326182</v>
+        <v>0.1871000714326183</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.167019725178226</v>
+        <v>0.1657075978094502</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2101530380462927</v>
+        <v>0.2096981440291307</v>
       </c>
     </row>
     <row r="32">
@@ -11580,19 +11580,19 @@
         <v>11723</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5358</v>
+        <v>4760</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28423</v>
+        <v>25241</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01487862917152013</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006800677441106083</v>
+        <v>0.006041005486865061</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03607443327372322</v>
+        <v>0.03203543026012084</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -11601,19 +11601,19 @@
         <v>5935</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2953</v>
+        <v>2824</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10711</v>
+        <v>10731</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.008346124485510925</v>
+        <v>0.008346124485510927</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004153273260822241</v>
+        <v>0.003972085103219172</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01506267706015759</v>
+        <v>0.015090622583724</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -11622,19 +11622,19 @@
         <v>17658</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10388</v>
+        <v>10363</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34300</v>
+        <v>33536</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01177978552022376</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006930136486528861</v>
+        <v>0.006913480404505593</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.022882367652718</v>
+        <v>0.02237229795364667</v>
       </c>
     </row>
     <row r="33">
@@ -11654,16 +11654,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8647</v>
+        <v>11096</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.002500912017857189</v>
+        <v>0.002500912017857188</v>
       </c>
       <c r="H33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01097494023386121</v>
+        <v>0.01408231079659164</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -11688,16 +11688,16 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>9943</v>
+        <v>9184</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.001314546955527305</v>
+        <v>0.001314546955527306</v>
       </c>
       <c r="V33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.006633074200747665</v>
+        <v>0.006126912784053709</v>
       </c>
     </row>
     <row r="34">
@@ -11714,19 +11714,19 @@
         <v>468604</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>437441</v>
+        <v>438415</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>497944</v>
+        <v>500021</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5947448822675797</v>
+        <v>0.5947448822675796</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5551932658050642</v>
+        <v>0.5564298728750638</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6319836911622049</v>
+        <v>0.6346197967384256</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>757</v>
@@ -11735,19 +11735,19 @@
         <v>476352</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>454199</v>
+        <v>453233</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>498577</v>
+        <v>499976</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6699015994925209</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6387474257038249</v>
+        <v>0.6373884929005676</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7011568231497272</v>
+        <v>0.7031237485472094</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1292</v>
@@ -11756,19 +11756,19 @@
         <v>944956</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>904218</v>
+        <v>906314</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>979585</v>
+        <v>984448</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.6303971974543702</v>
+        <v>0.6303971974543703</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6032202517967684</v>
+        <v>0.6046187316567686</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6534989736881536</v>
+        <v>0.6567428753549791</v>
       </c>
     </row>
     <row r="35">
@@ -11860,19 +11860,19 @@
         <v>36566</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24769</v>
+        <v>24698</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>52649</v>
+        <v>51988</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01470729283988276</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.009962533721864092</v>
+        <v>0.009933785293077469</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02117593113538109</v>
+        <v>0.02090996891875361</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>66</v>
@@ -11881,19 +11881,19 @@
         <v>44388</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>34269</v>
+        <v>34229</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>57545</v>
+        <v>57623</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0178125860675529</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01375158664177163</v>
+        <v>0.01373553923440016</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02309214354924752</v>
+        <v>0.02312357335291244</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>102</v>
@@ -11902,19 +11902,19 @@
         <v>80955</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>65857</v>
+        <v>65808</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>103033</v>
+        <v>101984</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01626172084265413</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01322893087742813</v>
+        <v>0.01321913997378672</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02069676462035</v>
+        <v>0.0204860847483753</v>
       </c>
     </row>
     <row r="37">
@@ -11931,19 +11931,19 @@
         <v>125354</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>102463</v>
+        <v>103496</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>149078</v>
+        <v>149545</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.05041873113149295</v>
+        <v>0.05041873113149294</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04121181648749282</v>
+        <v>0.0416271549170318</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05996071116306566</v>
+        <v>0.06014864374594756</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>167</v>
@@ -11952,19 +11952,19 @@
         <v>121756</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>104200</v>
+        <v>104134</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>140247</v>
+        <v>141210</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04885933778258483</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04181450762578751</v>
+        <v>0.04178769169347396</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05627938895762227</v>
+        <v>0.05666620695972922</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>277</v>
@@ -11973,19 +11973,19 @@
         <v>247110</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>217626</v>
+        <v>219520</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>278988</v>
+        <v>278908</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04963813989222474</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0437156391177765</v>
+        <v>0.04409592054629509</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05604159650287405</v>
+        <v>0.05602548568939108</v>
       </c>
     </row>
     <row r="38">
@@ -12002,19 +12002,19 @@
         <v>200762</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>169705</v>
+        <v>169567</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>235094</v>
+        <v>235289</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.08074882664965449</v>
+        <v>0.08074882664965448</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06825721086330902</v>
+        <v>0.06820150386402202</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09455717340413829</v>
+        <v>0.09463556645465447</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>323</v>
@@ -12023,19 +12023,19 @@
         <v>262136</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>234079</v>
+        <v>232350</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>290444</v>
+        <v>287024</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1051923279960607</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09393337777360301</v>
+        <v>0.09323943921692406</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.11655187270464</v>
+        <v>0.1151795017312482</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>476</v>
@@ -12044,19 +12044,19 @@
         <v>462899</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>419093</v>
+        <v>419848</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>508346</v>
+        <v>507820</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09298459963240148</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08418521349690711</v>
+        <v>0.08433676099692305</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1021137323902872</v>
+        <v>0.102008106400022</v>
       </c>
     </row>
     <row r="39">
@@ -12073,19 +12073,19 @@
         <v>629891</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>580181</v>
+        <v>576350</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>681314</v>
+        <v>680001</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2533489161973103</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2333551198376164</v>
+        <v>0.2318140954708327</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2740317223715361</v>
+        <v>0.2735036163183838</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>499</v>
@@ -12094,19 +12094,19 @@
         <v>411484</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>376140</v>
+        <v>374919</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>445946</v>
+        <v>445220</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.165123954862277</v>
+        <v>0.1651239548622769</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1509406914214722</v>
+        <v>0.1504508142551572</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1789533290889142</v>
+        <v>0.1786620300264466</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1010</v>
@@ -12115,19 +12115,19 @@
         <v>1041375</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>981547</v>
+        <v>979620</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1100233</v>
+        <v>1103667</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2091858242159803</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1971679956267912</v>
+        <v>0.1967809042526774</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2210088413543659</v>
+        <v>0.2216986853533196</v>
       </c>
     </row>
     <row r="40">
@@ -12144,19 +12144,19 @@
         <v>38837</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>27842</v>
+        <v>27132</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>57259</v>
+        <v>58448</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01562058544598735</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01119844862423964</v>
+        <v>0.01091276871279276</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02303004931086012</v>
+        <v>0.02350841294163692</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>41</v>
@@ -12165,19 +12165,19 @@
         <v>25979</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>18634</v>
+        <v>18530</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>35880</v>
+        <v>34728</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01042515317600311</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007477594774779256</v>
+        <v>0.007435869706396473</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01439812882221309</v>
+        <v>0.01393600851353016</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>78</v>
@@ -12186,19 +12186,19 @@
         <v>64816</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>51239</v>
+        <v>51834</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>86066</v>
+        <v>84239</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01301988888857245</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01029267814948458</v>
+        <v>0.01041212497959328</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01728851057257348</v>
+        <v>0.01692142309084792</v>
       </c>
     </row>
     <row r="41">
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11758</v>
+        <v>11103</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001224532752783248</v>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.004729269530908697</v>
+        <v>0.004465562731510235</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>12032</v>
+        <v>11942</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0006115639083997097</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.002416839763523448</v>
+        <v>0.00239893044528037</v>
       </c>
     </row>
     <row r="42">
@@ -12278,19 +12278,19 @@
         <v>1451804</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1396064</v>
+        <v>1397520</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1502700</v>
+        <v>1507978</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.5839311149828889</v>
+        <v>0.5839311149828887</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5615119202346425</v>
+        <v>0.5620973965161726</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6044021269864912</v>
+        <v>0.6065247118863593</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2611</v>
@@ -12299,19 +12299,19 @@
         <v>1626226</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1581661</v>
+        <v>1586458</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1665114</v>
+        <v>1672834</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6525866401155216</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6347032202180034</v>
+        <v>0.636628079617073</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6681918159478613</v>
+        <v>0.6712896672949306</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4307</v>
@@ -12320,19 +12320,19 @@
         <v>3078030</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3009052</v>
+        <v>3007739</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3149739</v>
+        <v>3152739</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6182982626197671</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6044422202595925</v>
+        <v>0.6041785911039849</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.632702761595126</v>
+        <v>0.6333052546172766</v>
       </c>
     </row>
     <row r="43">
